--- a/Assets/Resources/NovelData/NovelData.xlsx
+++ b/Assets/Resources/NovelData/NovelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50247246160c431b/ドキュメント/Unity/project_7/Assets/Resources/NovelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{6B7D28D4-C9B5-40C7-9EA6-648BDE79E72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51914BAD-0892-4615-9F33-94914928F32F}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="13_ncr:1_{6B7D28D4-C9B5-40C7-9EA6-648BDE79E72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A401869-4F45-4DFA-968B-C79BFCDFBF6C}"/>
   <bookViews>
-    <workbookView xWindow="16935" yWindow="735" windowWidth="19755" windowHeight="17730" activeTab="2" xr2:uid="{AB1E060B-81D0-40E7-B3A8-D5CA55679207}"/>
+    <workbookView xWindow="3195" yWindow="960" windowWidth="27240" windowHeight="19380" activeTab="2" xr2:uid="{AB1E060B-81D0-40E7-B3A8-D5CA55679207}"/>
   </bookViews>
   <sheets>
     <sheet name="Eve1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="959">
   <si>
     <t>sectionID</t>
     <phoneticPr fontId="1"/>
@@ -8486,6 +8486,41 @@
   </si>
   <si>
     <t>◆◆射精</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>椅子</t>
+    <rPh sb="0" eb="2">
+      <t>イス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>椅子横</t>
+    <rPh sb="0" eb="2">
+      <t>イス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手コキ</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0,0.28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deleteimage</t>
+  </si>
+  <si>
+    <t>speed1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9002,8 +9037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8976D-BA4E-47F1-B9B7-1B09B49103EC}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9399,6 +9434,9 @@
       <c r="B39" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="G39" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A40">
@@ -9407,8 +9445,8 @@
       <c r="B40" s="11" t="s">
         <v>894</v>
       </c>
-      <c r="G40" t="s">
-        <v>910</v>
+      <c r="F40" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -11426,8 +11464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0107DD1-9466-46C4-8989-10753DF104E6}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11436,7 +11474,11 @@
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
@@ -11517,6 +11559,9 @@
       <c r="B6" s="12" t="s">
         <v>208</v>
       </c>
+      <c r="F6" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -11604,7 +11649,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11612,7 +11657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11623,7 +11668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11631,7 +11676,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11639,7 +11684,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11650,7 +11695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11658,7 +11703,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11666,7 +11711,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11674,7 +11719,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11682,7 +11727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11690,7 +11735,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11701,7 +11746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11709,7 +11754,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11720,15 +11765,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F30" t="s">
+        <v>957</v>
+      </c>
+      <c r="G30" t="s">
+        <v>955</v>
+      </c>
+      <c r="H30">
+        <v>12.5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11736,7 +11793,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11747,7 +11804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11755,7 +11812,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11763,7 +11820,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11774,7 +11831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11782,7 +11839,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11793,7 +11850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11801,7 +11858,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11809,7 +11866,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11817,7 +11874,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11828,7 +11885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11836,7 +11893,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11844,7 +11901,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11855,7 +11912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11863,7 +11920,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11871,15 +11928,18 @@
         <v>950</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="J47" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>

--- a/Assets/Resources/NovelData/NovelData.xlsx
+++ b/Assets/Resources/NovelData/NovelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50247246160c431b/ドキュメント/Unity/project_7/Assets/Resources/NovelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="13_ncr:1_{6B7D28D4-C9B5-40C7-9EA6-648BDE79E72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A401869-4F45-4DFA-968B-C79BFCDFBF6C}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{6B7D28D4-C9B5-40C7-9EA6-648BDE79E72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61DB8B08-960B-4F13-8C87-590E763B3471}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="960" windowWidth="27240" windowHeight="19380" activeTab="2" xr2:uid="{AB1E060B-81D0-40E7-B3A8-D5CA55679207}"/>
+    <workbookView xWindow="12135" yWindow="2160" windowWidth="19275" windowHeight="18690" activeTab="2" xr2:uid="{AB1E060B-81D0-40E7-B3A8-D5CA55679207}"/>
   </bookViews>
   <sheets>
     <sheet name="Eve1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="981">
   <si>
     <t>sectionID</t>
     <phoneticPr fontId="1"/>
@@ -1462,9 +1462,6 @@
   <si>
     <t>はるかとの関係は、今日から少し変わった。</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まだ言葉にはできない感情が、静かに、でも確実に育まれていく。</t>
   </si>
   <si>
     <t>今日も大学から帰ってきてから、それぞれ自分の作業に取り組んでいた二人。</t>
@@ -8485,10 +8482,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>◆◆射精</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>椅子</t>
     <rPh sb="0" eb="2">
       <t>イス</t>
@@ -8520,7 +8513,168 @@
     <t>deleteimage</t>
   </si>
   <si>
-    <t>speed1</t>
+    <t>もじもじ用</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speed_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isImageFade</t>
+  </si>
+  <si>
+    <t>isImageFade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tekoki2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tekoki5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tekoki4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tekoki1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tekoki3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ejaculation</t>
+  </si>
+  <si>
+    <t>Speed_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speed_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return_To_Idle</t>
+  </si>
+  <si>
+    <t>CloseSmile</t>
+  </si>
+  <si>
+    <t>体験版はここまでになります。</t>
+    <rPh sb="0" eb="3">
+      <t>タイケンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Holi_Head_2</t>
+  </si>
+  <si>
+    <t>Holi_Head_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Night_Chest_2</t>
+  </si>
+  <si>
+    <t>Night_Chest_3</t>
+  </si>
+  <si>
+    <t>まだ言葉にはできない感情が、静かに、でも確実に育まれていく。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>続きをお楽しみいただくには製品版をご購入下さい。</t>
+    <rPh sb="0" eb="1">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セイヒンバン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイしていただきありがとうございました！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品版では、イベントの全開放、お触りボタンでリアルタイムのエッチ、ショップアイテムの全開放、お風呂ボタンで一緒にお風呂に入ってお触り…などなど様々なアクションがお楽しみいただけます。</t>
+    <rPh sb="0" eb="3">
+      <t>セイヒンバン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ゼンカイホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サワ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ゼンカイホウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>フロ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>フロ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>サワ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なお、引き続き周回は可能ですので是非お楽しみください！</t>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゼヒ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タノ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8630,7 +8784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8696,6 +8850,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9035,10 +9192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8976D-BA4E-47F1-B9B7-1B09B49103EC}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9046,16 +9203,16 @@
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="51.875" customWidth="1"/>
     <col min="3" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="14.75" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="6" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9075,34 +9232,37 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>873</v>
+        <v>959</v>
       </c>
       <c r="H1" t="s">
+        <v>872</v>
+      </c>
+      <c r="I1" t="s">
+        <v>870</v>
+      </c>
+      <c r="J1" t="s">
         <v>871</v>
       </c>
-      <c r="I1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="F2" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9111,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9119,18 +9279,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="54" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="54" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:13" ht="36" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9138,7 +9295,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="36" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="36" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9146,7 +9303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9154,7 +9311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="36" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="36" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9162,7 +9319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9170,7 +9327,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="36" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="36" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9178,31 +9335,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9210,7 +9367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9219,12 +9376,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9233,99 +9390,102 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>877</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9333,47 +9493,50 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1"/>
       <c r="F30" t="s">
-        <v>869</v>
-      </c>
-      <c r="G30" t="s">
+        <v>868</v>
+      </c>
+      <c r="H30" t="s">
+        <v>873</v>
+      </c>
+      <c r="I30">
+        <v>13</v>
+      </c>
+      <c r="J30" t="s">
+        <v>908</v>
+      </c>
+      <c r="L30" t="s">
         <v>874</v>
       </c>
-      <c r="H30">
-        <v>13</v>
-      </c>
-      <c r="I30" t="s">
-        <v>909</v>
-      </c>
-      <c r="K30" t="s">
-        <v>875</v>
-      </c>
-      <c r="L30">
+      <c r="M30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+        <v>888</v>
+      </c>
+      <c r="K32" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9381,75 +9544,84 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="K34" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="K36" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+        <v>891</v>
+      </c>
+      <c r="K37" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G39" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="H39" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F40" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9457,7 +9629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9465,58 +9637,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C46">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -9527,7 +9699,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -9535,7 +9707,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -9543,7 +9715,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -9551,7 +9723,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C52">
         <v>8</v>
@@ -9562,7 +9734,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -9570,7 +9742,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -9586,7 +9758,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -9594,7 +9766,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
@@ -9650,19 +9822,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863CD4A7-E427-44CA-ABFD-FE263B9264F3}">
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="49.625" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9682,139 +9855,142 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>873</v>
+        <v>958</v>
       </c>
       <c r="H1" t="s">
+        <v>872</v>
+      </c>
+      <c r="I1" t="s">
+        <v>870</v>
+      </c>
+      <c r="J1" t="s">
         <v>871</v>
       </c>
-      <c r="I1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -9822,7 +9998,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -9830,7 +10006,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -9838,7 +10014,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -9846,7 +10022,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -9854,7 +10030,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -9862,7 +10038,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -9870,7 +10046,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -9878,7 +10054,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -9886,7 +10062,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -9894,7 +10070,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -9902,7 +10078,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -9910,7 +10086,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
@@ -9918,7 +10094,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -9926,7 +10102,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -9934,7 +10110,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="51.75" x14ac:dyDescent="0.4">
@@ -9942,7 +10118,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -9950,7 +10126,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="51.75" x14ac:dyDescent="0.4">
@@ -9958,7 +10134,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -9966,7 +10142,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -9974,7 +10150,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -9982,7 +10158,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -9990,7 +10166,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -9998,7 +10174,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10006,7 +10182,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10014,7 +10190,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -10022,7 +10198,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -10030,7 +10206,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10038,7 +10214,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
@@ -10046,7 +10222,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
@@ -10054,7 +10230,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
@@ -10070,7 +10246,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
@@ -10078,7 +10254,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="86.25" x14ac:dyDescent="0.4">
@@ -10086,7 +10262,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10094,7 +10270,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10102,7 +10278,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10110,7 +10286,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
@@ -10118,7 +10294,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
@@ -10126,7 +10302,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
@@ -10134,7 +10310,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10142,7 +10318,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10150,7 +10326,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10158,7 +10334,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
@@ -10166,7 +10342,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10174,7 +10350,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10182,7 +10358,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
@@ -10190,7 +10366,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10198,7 +10374,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
@@ -10206,7 +10382,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
@@ -10214,7 +10390,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
@@ -10222,7 +10398,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10230,7 +10406,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10238,7 +10414,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="69" x14ac:dyDescent="0.4">
@@ -10246,7 +10422,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
@@ -10254,7 +10430,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10262,7 +10438,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
@@ -10270,7 +10446,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10278,7 +10454,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
@@ -10286,7 +10462,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
@@ -10294,7 +10470,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10302,7 +10478,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
@@ -10310,7 +10486,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
@@ -10318,7 +10494,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
@@ -10326,7 +10502,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
@@ -10334,7 +10510,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10342,7 +10518,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10350,7 +10526,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10358,7 +10534,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
@@ -10366,7 +10542,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
@@ -10374,7 +10550,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
@@ -10382,7 +10558,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
@@ -10390,7 +10566,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
@@ -10398,7 +10574,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
@@ -10406,7 +10582,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
@@ -10414,7 +10590,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
@@ -10422,7 +10598,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
@@ -10430,7 +10606,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
@@ -10438,7 +10614,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
@@ -10446,7 +10622,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
@@ -10454,7 +10630,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
@@ -10462,7 +10638,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
@@ -10470,7 +10646,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
@@ -10478,7 +10654,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
@@ -10486,7 +10662,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10494,7 +10670,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10502,7 +10678,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10510,7 +10686,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10518,7 +10694,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
@@ -10526,7 +10702,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
@@ -10534,7 +10710,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
@@ -10542,7 +10718,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
@@ -10550,7 +10726,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
@@ -10558,7 +10734,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10566,7 +10742,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
@@ -10574,7 +10750,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
@@ -10582,7 +10758,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
@@ -10590,7 +10766,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
@@ -10598,7 +10774,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
@@ -10606,7 +10782,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
@@ -10614,7 +10790,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
@@ -10622,7 +10798,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
@@ -10630,7 +10806,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
@@ -10638,7 +10814,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
@@ -10646,7 +10822,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10654,7 +10830,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10662,7 +10838,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10670,7 +10846,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
@@ -10678,7 +10854,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
@@ -10686,7 +10862,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
@@ -10694,7 +10870,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="51.75" x14ac:dyDescent="0.4">
@@ -10702,7 +10878,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
@@ -10710,7 +10886,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
@@ -10718,7 +10894,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
@@ -10726,7 +10902,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
@@ -10734,7 +10910,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10742,7 +10918,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
@@ -10750,7 +10926,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10758,7 +10934,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
@@ -10766,7 +10942,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
@@ -10774,7 +10950,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
@@ -10782,7 +10958,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10790,7 +10966,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10798,7 +10974,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -10806,7 +10982,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -10817,22 +10993,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8639E0C7-E08E-4FF9-BBE9-B50262A5270C}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="53.125" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="6" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10852,34 +11028,37 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>873</v>
+        <v>959</v>
       </c>
       <c r="H1" t="s">
+        <v>872</v>
+      </c>
+      <c r="I1" t="s">
+        <v>870</v>
+      </c>
+      <c r="J1" t="s">
         <v>871</v>
       </c>
-      <c r="I1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="F2" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10887,7 +11066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10895,23 +11074,29 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>867</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10922,7 +11107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10930,7 +11115,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10938,18 +11123,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10957,7 +11142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10965,7 +11150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10973,7 +11158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10981,7 +11166,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10989,7 +11174,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11048,7 +11233,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -11059,7 +11244,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -11067,7 +11252,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
@@ -11094,7 +11279,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -11102,7 +11287,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -11110,7 +11295,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -11118,7 +11303,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -11129,7 +11314,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
@@ -11145,7 +11330,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -11153,7 +11338,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C34">
         <v>16</v>
@@ -11164,7 +11349,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -11172,7 +11357,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -11181,7 +11366,7 @@
       </c>
       <c r="B37" s="9"/>
       <c r="F37" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -11189,7 +11374,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -11197,7 +11382,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -11213,7 +11398,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C41">
         <v>17</v>
@@ -11224,7 +11409,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -11232,7 +11417,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -11248,7 +11433,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -11256,7 +11441,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C46">
         <v>18</v>
@@ -11267,7 +11452,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
@@ -11283,7 +11468,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -11291,7 +11476,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C50">
         <v>19</v>
@@ -11302,7 +11487,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -11310,7 +11495,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
@@ -11318,7 +11503,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -11348,7 +11533,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -11356,7 +11541,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -11462,26 +11647,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0107DD1-9466-46C4-8989-10753DF104E6}">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="54.25" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11501,34 +11689,37 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>873</v>
+        <v>959</v>
       </c>
       <c r="H1" t="s">
+        <v>872</v>
+      </c>
+      <c r="I1" t="s">
+        <v>870</v>
+      </c>
+      <c r="J1" t="s">
         <v>871</v>
       </c>
-      <c r="I1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="F2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11536,7 +11727,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11544,15 +11735,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11560,10 +11751,10 @@
         <v>208</v>
       </c>
       <c r="F6" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11571,7 +11762,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11579,7 +11770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11587,7 +11778,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11598,7 +11789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11606,7 +11797,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11614,7 +11805,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11625,7 +11816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11633,7 +11824,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11641,7 +11832,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11649,7 +11840,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11657,7 +11848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11668,7 +11859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11676,7 +11867,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11684,7 +11875,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11695,7 +11886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11703,15 +11894,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11719,7 +11910,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11727,15 +11918,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11746,46 +11937,43 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="F28" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="F30" t="s">
-        <v>957</v>
-      </c>
-      <c r="G30" t="s">
-        <v>955</v>
-      </c>
-      <c r="H30">
-        <v>12.5</v>
-      </c>
-      <c r="I30" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11793,7 +11981,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11803,16 +11991,28 @@
       <c r="C32">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="F32" t="s">
+        <v>961</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F33" t="s">
+        <v>963</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11820,7 +12020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11830,8 +12030,14 @@
       <c r="C35">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="F35" t="s">
+        <v>965</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11839,7 +12045,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11849,8 +12055,14 @@
       <c r="C37">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="F37" t="s">
+        <v>964</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11858,7 +12070,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11866,15 +12078,27 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+        <v>948</v>
+      </c>
+      <c r="F40" t="s">
+        <v>955</v>
+      </c>
+      <c r="H40" t="s">
+        <v>953</v>
+      </c>
+      <c r="I40">
+        <v>12.5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11885,7 +12109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11893,7 +12117,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11901,7 +12125,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11912,7 +12136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11920,26 +12144,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="34.5" x14ac:dyDescent="0.4">
+        <v>949</v>
+      </c>
+      <c r="K46" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="J47" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K47" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11950,15 +12177,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11966,7 +12193,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11974,7 +12201,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11982,7 +12209,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11993,7 +12220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12001,7 +12228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12009,7 +12236,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12017,7 +12244,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12027,8 +12254,11 @@
       <c r="C57">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="K57" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12036,7 +12266,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12044,7 +12274,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12052,7 +12282,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12063,7 +12293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12071,7 +12301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12079,7 +12309,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12090,15 +12320,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="K65" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -12106,7 +12339,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -12114,7 +12347,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12125,7 +12358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12133,7 +12366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12144,15 +12377,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="21" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B71" s="21"/>
+      <c r="K71" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12160,7 +12394,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12168,7 +12402,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12176,7 +12410,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12186,8 +12420,11 @@
       <c r="C75">
         <v>40</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="K75" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12195,7 +12432,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12205,8 +12442,11 @@
       <c r="C77">
         <v>41</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="K77" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12214,7 +12454,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12222,7 +12462,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12230,17 +12470,65 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
+      </c>
+      <c r="K82" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="69" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -12251,19 +12539,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058BBC3C-237C-482E-A765-4D8544177805}">
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12283,30 +12573,33 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>873</v>
+        <v>959</v>
       </c>
       <c r="H1" t="s">
+        <v>872</v>
+      </c>
+      <c r="I1" t="s">
+        <v>870</v>
+      </c>
+      <c r="J1" t="s">
         <v>871</v>
       </c>
-      <c r="I1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12314,23 +12607,23 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12338,15 +12631,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12354,7 +12647,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12362,15 +12655,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12378,15 +12671,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12394,7 +12687,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12402,20 +12695,20 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -12423,7 +12716,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -12431,7 +12724,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -12455,7 +12748,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -12463,7 +12756,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -12487,7 +12780,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -12519,7 +12812,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
@@ -12527,7 +12820,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -12535,7 +12828,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
@@ -12551,7 +12844,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
@@ -12559,7 +12852,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -12567,7 +12860,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -12583,7 +12876,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
@@ -12591,7 +12884,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -12599,7 +12892,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -12647,7 +12940,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
@@ -12655,7 +12948,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -12671,7 +12964,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
@@ -12679,7 +12972,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
@@ -12695,7 +12988,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
@@ -12703,7 +12996,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
@@ -12727,7 +13020,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
@@ -12735,7 +13028,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
@@ -12743,7 +13036,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
@@ -12751,7 +13044,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
@@ -12767,7 +13060,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
@@ -12791,7 +13084,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
@@ -12807,7 +13100,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
@@ -12815,7 +13108,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
@@ -12847,7 +13140,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
@@ -12855,7 +13148,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
@@ -12863,7 +13156,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -12871,7 +13164,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
@@ -12895,7 +13188,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
@@ -12903,7 +13196,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
@@ -12911,7 +13204,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
@@ -12919,7 +13212,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
@@ -12927,7 +13220,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
@@ -12935,7 +13228,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -12959,7 +13252,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
@@ -12967,7 +13260,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
@@ -12983,7 +13276,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
@@ -12991,7 +13284,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
@@ -12999,7 +13292,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -13007,7 +13300,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
@@ -13015,7 +13308,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
@@ -13031,7 +13324,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
@@ -13039,7 +13332,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
@@ -13071,7 +13364,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
@@ -13079,7 +13372,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
@@ -13087,7 +13380,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
@@ -13103,7 +13396,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
@@ -13111,7 +13404,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
@@ -13135,7 +13428,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
@@ -13143,7 +13436,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
@@ -13159,7 +13452,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -13175,7 +13468,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -13186,7 +13479,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED6A2A7-189C-4B4A-8C4B-045FC462B5CE}">
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -13195,10 +13488,11 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="49.125" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="6" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13218,41 +13512,44 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>873</v>
+        <v>958</v>
       </c>
       <c r="H1" t="s">
+        <v>872</v>
+      </c>
+      <c r="I1" t="s">
+        <v>870</v>
+      </c>
+      <c r="J1" t="s">
         <v>871</v>
       </c>
-      <c r="I1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13260,31 +13557,31 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13292,23 +13589,23 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13316,7 +13613,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13324,7 +13621,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13332,15 +13629,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13348,7 +13645,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13649,7 +13946,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
@@ -13972,19 +14269,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDBF4BA-7A8D-4E35-BB3E-FDD68F316C4D}">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="56.625" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="6" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14004,139 +14302,142 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>873</v>
+        <v>959</v>
       </c>
       <c r="H1" t="s">
+        <v>872</v>
+      </c>
+      <c r="I1" t="s">
+        <v>870</v>
+      </c>
+      <c r="J1" t="s">
         <v>871</v>
       </c>
-      <c r="I1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -14144,7 +14445,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -14152,7 +14453,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -14160,7 +14461,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -14168,7 +14469,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -14176,7 +14477,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -14184,7 +14485,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -14192,7 +14493,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -14200,7 +14501,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -14208,7 +14509,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -14216,7 +14517,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -14224,7 +14525,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -14232,7 +14533,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
@@ -14240,7 +14541,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
@@ -14248,7 +14549,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -14256,7 +14557,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
@@ -14264,7 +14565,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -14272,7 +14573,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
@@ -14280,7 +14581,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -14288,7 +14589,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -14296,7 +14597,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
@@ -14304,7 +14605,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -14312,7 +14613,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -14320,7 +14621,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -14328,7 +14629,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -14336,7 +14637,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -14344,7 +14645,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -14352,7 +14653,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
@@ -14360,7 +14661,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
@@ -14368,7 +14669,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
@@ -14376,7 +14677,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -14384,7 +14685,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
@@ -14392,7 +14693,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
@@ -14400,7 +14701,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
@@ -14408,7 +14709,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
@@ -14416,7 +14717,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
@@ -14424,7 +14725,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
@@ -14432,7 +14733,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
@@ -14440,7 +14741,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -14448,7 +14749,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
@@ -14456,7 +14757,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
@@ -14464,7 +14765,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
@@ -14472,7 +14773,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
@@ -14480,7 +14781,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
@@ -14488,7 +14789,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
@@ -14496,7 +14797,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
@@ -14504,7 +14805,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
@@ -14512,7 +14813,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
@@ -14520,7 +14821,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
@@ -14528,7 +14829,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
@@ -14536,7 +14837,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
@@ -14544,7 +14845,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -14552,7 +14853,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
@@ -14560,7 +14861,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
@@ -14568,7 +14869,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
@@ -14576,7 +14877,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
@@ -14592,7 +14893,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
@@ -14600,7 +14901,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
@@ -14608,7 +14909,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
@@ -14616,7 +14917,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
@@ -14624,7 +14925,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
@@ -14632,7 +14933,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
@@ -14640,7 +14941,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
@@ -14648,7 +14949,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
@@ -14656,7 +14957,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
@@ -14664,7 +14965,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
@@ -14672,7 +14973,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -14680,7 +14981,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
@@ -14688,7 +14989,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
@@ -14696,7 +14997,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
@@ -14704,7 +15005,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
@@ -14712,7 +15013,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
@@ -14720,7 +15021,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
@@ -14728,7 +15029,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
@@ -14736,7 +15037,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
@@ -14744,7 +15045,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
@@ -14752,7 +15053,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -14760,7 +15061,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
@@ -14768,7 +15069,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
@@ -14776,7 +15077,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
@@ -14784,7 +15085,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -14792,7 +15093,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
@@ -14800,7 +15101,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
@@ -14808,7 +15109,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
@@ -14816,7 +15117,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -14824,7 +15125,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
@@ -14832,7 +15133,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
@@ -14840,7 +15141,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -14851,19 +15152,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F571802-FEA8-485F-AE1C-7DEEC03FB891}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="51.625" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="6" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14883,139 +15185,142 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>873</v>
+        <v>959</v>
       </c>
       <c r="H1" t="s">
+        <v>872</v>
+      </c>
+      <c r="I1" t="s">
+        <v>870</v>
+      </c>
+      <c r="J1" t="s">
         <v>871</v>
       </c>
-      <c r="I1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15023,7 +15328,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15031,7 +15336,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -15039,7 +15344,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15047,7 +15352,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15055,7 +15360,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -15063,7 +15368,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15071,7 +15376,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15079,7 +15384,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -15087,7 +15392,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15095,7 +15400,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -15103,7 +15408,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -15111,7 +15416,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15119,7 +15424,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15127,7 +15432,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15135,7 +15440,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
@@ -15143,7 +15448,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -15151,7 +15456,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15159,7 +15464,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -15167,7 +15472,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -15175,7 +15480,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
@@ -15183,7 +15488,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15191,7 +15496,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -15199,7 +15504,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -15207,7 +15512,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -15215,7 +15520,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15223,7 +15528,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -15231,7 +15536,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15239,7 +15544,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15247,7 +15552,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
@@ -15255,7 +15560,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
@@ -15263,7 +15568,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
@@ -15271,7 +15576,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
@@ -15279,7 +15584,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15287,7 +15592,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
@@ -15295,7 +15600,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
@@ -15303,7 +15608,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
@@ -15311,7 +15616,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
@@ -15319,7 +15624,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15327,7 +15632,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
@@ -15335,7 +15640,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15343,7 +15648,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
@@ -15351,7 +15656,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
@@ -15359,7 +15664,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
@@ -15367,7 +15672,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
@@ -15375,7 +15680,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15383,7 +15688,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
@@ -15391,7 +15696,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
@@ -15399,7 +15704,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
@@ -15407,7 +15712,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
@@ -15415,7 +15720,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
@@ -15423,7 +15728,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -15431,7 +15736,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
@@ -15439,7 +15744,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
@@ -15447,7 +15752,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
@@ -15455,7 +15760,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15463,7 +15768,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15471,7 +15776,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15479,7 +15784,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
@@ -15487,7 +15792,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
@@ -15495,7 +15800,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15503,7 +15808,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15511,7 +15816,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
@@ -15519,7 +15824,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15527,7 +15832,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15535,7 +15840,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
@@ -15543,7 +15848,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
@@ -15551,7 +15856,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15559,7 +15864,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
@@ -15567,7 +15872,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15575,7 +15880,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
@@ -15583,7 +15888,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
@@ -15591,7 +15896,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -15602,19 +15907,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F66158-5644-476B-BF91-6A15C0C45445}">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="6" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15634,139 +15940,142 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>873</v>
+        <v>959</v>
       </c>
       <c r="H1" t="s">
+        <v>872</v>
+      </c>
+      <c r="I1" t="s">
+        <v>870</v>
+      </c>
+      <c r="J1" t="s">
         <v>871</v>
       </c>
-      <c r="I1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -15774,7 +16083,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -15782,7 +16091,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15790,7 +16099,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -15798,7 +16107,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15806,7 +16115,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -15814,7 +16123,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -15822,7 +16131,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -15830,7 +16139,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15838,7 +16147,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -15846,7 +16155,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -15854,7 +16163,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -15862,7 +16171,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
@@ -15870,7 +16179,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -15878,7 +16187,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -15886,7 +16195,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
@@ -15894,7 +16203,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -15902,7 +16211,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
@@ -15910,7 +16219,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -15918,7 +16227,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -15926,7 +16235,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
@@ -15934,7 +16243,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
@@ -15942,7 +16251,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -15950,7 +16259,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -15958,7 +16267,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -15966,7 +16275,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -15974,7 +16283,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -15982,7 +16291,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
@@ -15990,7 +16299,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
@@ -15998,7 +16307,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
@@ -16006,7 +16315,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
@@ -16014,7 +16323,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
@@ -16022,7 +16331,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
@@ -16030,7 +16339,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16038,7 +16347,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
@@ -16046,7 +16355,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16054,7 +16363,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
@@ -16062,7 +16371,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
@@ -16070,7 +16379,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
@@ -16078,7 +16387,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
@@ -16086,7 +16395,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
@@ -16094,7 +16403,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
@@ -16102,7 +16411,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16110,7 +16419,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
@@ -16118,7 +16427,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
@@ -16126,7 +16435,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
@@ -16134,7 +16443,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
@@ -16142,7 +16451,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
@@ -16150,7 +16459,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
@@ -16158,7 +16467,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16166,7 +16475,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16174,7 +16483,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -16182,7 +16491,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
@@ -16190,7 +16499,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
@@ -16198,7 +16507,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16206,7 +16515,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
@@ -16214,7 +16523,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
@@ -16222,7 +16531,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16230,7 +16539,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
@@ -16238,7 +16547,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
@@ -16246,7 +16555,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
@@ -16254,7 +16563,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
@@ -16262,7 +16571,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
@@ -16270,7 +16579,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
@@ -16278,7 +16587,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
@@ -16286,7 +16595,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16294,7 +16603,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
@@ -16302,7 +16611,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
@@ -16310,7 +16619,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
@@ -16318,7 +16627,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16326,7 +16635,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
@@ -16334,7 +16643,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
@@ -16342,7 +16651,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
@@ -16350,7 +16659,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
@@ -16358,7 +16667,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
@@ -16366,7 +16675,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16374,7 +16683,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
@@ -16382,7 +16691,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
@@ -16390,7 +16699,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
@@ -16398,7 +16707,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
@@ -16406,7 +16715,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
@@ -16414,7 +16723,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
@@ -16422,7 +16731,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
@@ -16430,7 +16739,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
@@ -16438,7 +16747,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
@@ -16446,7 +16755,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
@@ -16454,7 +16763,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
@@ -16462,7 +16771,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
@@ -16470,7 +16779,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
@@ -16478,7 +16787,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
@@ -16486,7 +16795,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
@@ -16494,7 +16803,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
@@ -16502,7 +16811,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
@@ -16510,7 +16819,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
@@ -16518,7 +16827,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16526,7 +16835,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16534,7 +16843,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
@@ -16542,7 +16851,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16550,7 +16859,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
@@ -16558,7 +16867,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
@@ -16566,7 +16875,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
@@ -16574,7 +16883,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16582,7 +16891,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
@@ -16590,7 +16899,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -16601,20 +16910,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5F22B8-18F0-470F-BDEA-B9B4F74E586F}">
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="56.125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16634,139 +16943,142 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>873</v>
+        <v>959</v>
       </c>
       <c r="H1" t="s">
+        <v>872</v>
+      </c>
+      <c r="I1" t="s">
+        <v>870</v>
+      </c>
+      <c r="J1" t="s">
         <v>871</v>
       </c>
-      <c r="I1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -16774,7 +17086,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -16782,7 +17094,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -16790,7 +17102,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16798,7 +17110,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -16806,7 +17118,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -16814,7 +17126,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -16822,7 +17134,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -16830,7 +17142,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -16838,7 +17150,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16846,7 +17158,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -16854,7 +17166,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -16862,7 +17174,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16870,7 +17182,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
@@ -16878,7 +17190,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16886,7 +17198,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
@@ -16894,7 +17206,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -16902,7 +17214,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16910,7 +17222,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -16918,7 +17230,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16926,7 +17238,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
@@ -16934,7 +17246,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16942,7 +17254,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16950,7 +17262,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -16958,7 +17270,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16966,7 +17278,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -16974,7 +17286,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -16982,7 +17294,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
@@ -16990,7 +17302,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
@@ -16998,7 +17310,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
@@ -17006,7 +17318,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
@@ -17014,7 +17326,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17022,7 +17334,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
@@ -17030,7 +17342,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
@@ -17038,7 +17350,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
@@ -17046,7 +17358,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
@@ -17054,7 +17366,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
@@ -17062,7 +17374,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
@@ -17070,7 +17382,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
@@ -17078,7 +17390,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
@@ -17086,7 +17398,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17094,7 +17406,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17102,7 +17414,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
@@ -17110,7 +17422,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
@@ -17118,7 +17430,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
@@ -17126,7 +17438,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
@@ -17134,7 +17446,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17142,7 +17454,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
@@ -17150,7 +17462,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
@@ -17158,7 +17470,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17166,7 +17478,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
@@ -17174,7 +17486,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -17182,7 +17494,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
@@ -17190,7 +17502,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
@@ -17198,7 +17510,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17206,7 +17518,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
@@ -17214,7 +17526,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
@@ -17222,7 +17534,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
@@ -17230,7 +17542,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
@@ -17238,7 +17550,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17246,7 +17558,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17254,7 +17566,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
@@ -17262,7 +17574,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
@@ -17270,7 +17582,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
@@ -17278,7 +17590,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
@@ -17286,7 +17598,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
@@ -17294,7 +17606,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
@@ -17302,7 +17614,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17310,7 +17622,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17318,7 +17630,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
@@ -17326,7 +17638,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
@@ -17334,7 +17646,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
@@ -17342,7 +17654,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
@@ -17350,7 +17662,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
@@ -17358,7 +17670,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
@@ -17366,7 +17678,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
@@ -17374,7 +17686,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
@@ -17382,7 +17694,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
@@ -17390,7 +17702,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
@@ -17398,7 +17710,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17406,7 +17718,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
@@ -17414,7 +17726,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17422,7 +17734,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
@@ -17430,7 +17742,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
@@ -17438,7 +17750,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
@@ -17446,7 +17758,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
@@ -17454,7 +17766,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
@@ -17462,7 +17774,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
@@ -17470,7 +17782,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
@@ -17478,7 +17790,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
@@ -17486,7 +17798,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17494,7 +17806,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
@@ -17502,7 +17814,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17510,7 +17822,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17518,7 +17830,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
@@ -17526,7 +17838,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
@@ -17542,7 +17854,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
@@ -17550,7 +17862,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
@@ -17558,7 +17870,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17566,7 +17878,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
@@ -17574,7 +17886,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
@@ -17582,7 +17894,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17590,7 +17902,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
@@ -17598,7 +17910,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/NovelData/NovelData.xlsx
+++ b/Assets/Resources/NovelData/NovelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50247246160c431b/ドキュメント/Unity/project_7/Assets/Resources/NovelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{6B7D28D4-C9B5-40C7-9EA6-648BDE79E72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61DB8B08-960B-4F13-8C87-590E763B3471}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="13_ncr:1_{6B7D28D4-C9B5-40C7-9EA6-648BDE79E72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE255733-6E54-4D01-B95B-313825C589B1}"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="2160" windowWidth="19275" windowHeight="18690" activeTab="2" xr2:uid="{AB1E060B-81D0-40E7-B3A8-D5CA55679207}"/>
+    <workbookView xWindow="13605" yWindow="1260" windowWidth="19275" windowHeight="18690" activeTab="2" xr2:uid="{AB1E060B-81D0-40E7-B3A8-D5CA55679207}"/>
   </bookViews>
   <sheets>
     <sheet name="Eve1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="984">
   <si>
     <t>sectionID</t>
     <phoneticPr fontId="1"/>
@@ -8675,6 +8675,29 @@
     <rPh sb="19" eb="20">
       <t>タノ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好感度、H度が増加するとキャラをタッチしたときのリアクションが変化します。</t>
+    <rPh sb="0" eb="3">
+      <t>コウカンド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体験版終了用画像_1</t>
+  </si>
+  <si>
+    <t>体験版終了用画像_2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11647,10 +11670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0107DD1-9466-46C4-8989-10753DF104E6}">
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12382,6 +12405,9 @@
         <v>70</v>
       </c>
       <c r="B71" s="21"/>
+      <c r="C71">
+        <v>40</v>
+      </c>
       <c r="K71" t="s">
         <v>966</v>
       </c>
@@ -12418,7 +12444,7 @@
         <v>64</v>
       </c>
       <c r="C75">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K75" t="s">
         <v>969</v>
@@ -12440,7 +12466,7 @@
         <v>66</v>
       </c>
       <c r="C77">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K77" t="s">
         <v>970</v>
@@ -12493,6 +12519,9 @@
       <c r="B83" s="12" t="s">
         <v>971</v>
       </c>
+      <c r="F83" t="s">
+        <v>982</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84">
@@ -12517,18 +12546,29 @@
       <c r="B86" s="12" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F86" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/NovelData/NovelData.xlsx
+++ b/Assets/Resources/NovelData/NovelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50247246160c431b/ドキュメント/Unity/project_7/Assets/Resources/NovelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="13_ncr:1_{6B7D28D4-C9B5-40C7-9EA6-648BDE79E72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05FAE52-2591-4D5A-A4DA-95F3076D2FC3}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="13_ncr:1_{6B7D28D4-C9B5-40C7-9EA6-648BDE79E72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A191CBB-0860-4366-8551-5DBE467869DD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{AB1E060B-81D0-40E7-B3A8-D5CA55679207}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="18480" windowHeight="20985" activeTab="3" xr2:uid="{AB1E060B-81D0-40E7-B3A8-D5CA55679207}"/>
   </bookViews>
   <sheets>
     <sheet name="Eve1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="304">
   <si>
     <t>sectionID</t>
     <phoneticPr fontId="1"/>
@@ -1588,6 +1588,849 @@
   </si>
   <si>
     <t>体験版終了用画像_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜の21時過ぎ。アパートの窓からは、街の明かりが仄かに部屋を照らす。</t>
+  </si>
+  <si>
+    <r>
+      <t>今日も大学から帰ってきてから、それぞれ自分の作業に取り組んでいた二人。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は机で課題に向き合い、俺は大学の講義で必要な資料に目を通していた。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>静かな部屋の中、ふと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が椅子から立ち上がる音がする。</t>
+    </r>
+  </si>
+  <si>
+    <t>終わった？</t>
+  </si>
+  <si>
+    <t>うん……なんとか……。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ほっとしたような溜息と共に、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は肩の力を抜く。最近は少しずつ大学の課題が増えてきてそれに伴って勉強時間が増えているが、それでも毎回真剣に取り組む姿勢は変わらない。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>そんな</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の頑張る姿を見ていると、なぜか胸が温かくなる。</t>
+    </r>
+  </si>
+  <si>
+    <t>お兄ちゃんも…まだ勉強してるの？</t>
+  </si>
+  <si>
+    <t>ああ、もう少しだけ。そろそろ疲れてきたけどな。</t>
+  </si>
+  <si>
+    <r>
+      <t>資料から目を上げると、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が部屋の真ん中で立ち止まっている。何か言いたそうにもじもじとしている様子だ。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>先日の"あの出来事"以来、二人の関係はさらに親密になった。それでも</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の人見知りな性格は変わらず、思っていることをすぐに口にするのが苦手なままだ。</t>
+    </r>
+  </si>
+  <si>
+    <t>どうした？何か欲しいものでもあるのか？</t>
+  </si>
+  <si>
+    <t>……そうじゃなくて……。</t>
+  </si>
+  <si>
+    <r>
+      <t>照れくさそうに視線を落とす</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。その仕草に何となく意図が読み取れる。</t>
+    </r>
+  </si>
+  <si>
+    <t>もしかして、また……？</t>
+  </si>
+  <si>
+    <t>う、うん……。この前のこと、考えちゃって……。お兄ちゃん、すごく喜んでくれたから……。</t>
+  </si>
+  <si>
+    <r>
+      <t>言葉を途切れさせながらも、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は徐々に俺に近づいてくる。その目は先日より少し自信があるように見える。</t>
+    </r>
+  </si>
+  <si>
+    <t>無理しなくていいんだぞ？</t>
+  </si>
+  <si>
+    <t>無理なんかじゃないよ……。わたし……お兄ちゃんのために、もっと……できることを増やしたいの。</t>
+  </si>
+  <si>
+    <r>
+      <t>そう言って俺の前に膝をつく</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。以前と似た状況だが、今日はどこか決意に満ちている。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>……。</t>
+    </r>
+  </si>
+  <si>
+    <t>ね……今日は、もっと色々してみたい……。いい？</t>
+  </si>
+  <si>
+    <r>
+      <t>小さな声で尋ねる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の瞳に、期待と不安が混ざっているのが分かる。俺はゆっくりと頷く。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は前回と同じように俺のベルトに手をかけ、今度はやや慣れた手つきでジッパーを下ろす。</t>
+    </r>
+  </si>
+  <si>
+    <t>この前より……上手くできるように、わたし……もっと調べてきたんだ……。</t>
+  </si>
+  <si>
+    <r>
+      <t>照れながらも、そんなことを呟く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の健気さに胸が締め付けられる。下着をそっとずらし、俺のものが露わになる。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は息を呑んで、しばし見つめている。</t>
+    </r>
+  </si>
+  <si>
+    <t>……なんか、この前より、大きい気がする。</t>
+  </si>
+  <si>
+    <t>そうかな……？</t>
+  </si>
+  <si>
+    <t>分からない……。</t>
+  </si>
+  <si>
+    <t>よくわからないやり取りに思わず二人ともクスクス笑う。</t>
+  </si>
+  <si>
+    <t>じゃあ……始めるね。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は一度深呼吸をする。前回のように手で包み込むが、今日はさらに近づいて、顔を寄せる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>え、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>……？</t>
+    </r>
+  </si>
+  <si>
+    <t>大丈夫……。お兄ちゃんが喜ぶこと、もっと知りたくて……いろいろ……。</t>
+  </si>
+  <si>
+    <r>
+      <t>そう言いながら、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はゆっくりと唇を近づける。柔らかな吐息が先端に触れ、思わず体が震える。</t>
+    </r>
+  </si>
+  <si>
+    <t>痛くないように、気をつけるね……。</t>
+  </si>
+  <si>
+    <r>
+      <t>そっと囁いた後、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は恐る恐る舌先を伸ばす。その感触に、思わず声が漏れる。</t>
+    </r>
+  </si>
+  <si>
+    <t>……。</t>
+  </si>
+  <si>
+    <t>気持ちいい？</t>
+  </si>
+  <si>
+    <r>
+      <t>上目遣いで確認する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の姿に、言葉を失う。ただ小さく頷くだけで精一杯だ。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>安心したように微笑んだ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は、再び舌を這わせる。今度は少し大胆に、上から下まで。</t>
+    </r>
+  </si>
+  <si>
+    <t>こうやって……なめるの……どう？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は恥ずかしさのあまり声が震えているが、その動きは徐々に自信を帯びていく。</t>
+    </r>
+  </si>
+  <si>
+    <t>すごく……いいよ。</t>
+  </si>
+  <si>
+    <t>よかった……じゃあ、次は……。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>深呼吸した後、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はゆっくりと口を開く。そして恐る恐る先端を咥える。</t>
+    </r>
+  </si>
+  <si>
+    <t>っ！</t>
+  </si>
+  <si>
+    <r>
+      <t>思わず声が出るほどの感覚に、体が強張る。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は驚いたように一度離れる。</t>
+    </r>
+  </si>
+  <si>
+    <t>ごめん！痛かった？</t>
+  </si>
+  <si>
+    <t>ぜんぜん、むしろ気持ちよすぎて……。</t>
+  </si>
+  <si>
+    <t>……よかった。</t>
+  </si>
+  <si>
+    <r>
+      <t>少し安心したように頷いた後、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は再び口に含む。今度はもう少し深く。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>両手で支えながら、少しずつ動かし始める</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。最初は戸惑いがちだったが、俺の反応を確かめながら徐々にリズムをつかんでいく。</t>
+    </r>
+  </si>
+  <si>
+    <t>彼女の舌の動きが、俺の感覚をさらに高めていく。</t>
+  </si>
+  <si>
+    <t>ん……お兄ちゃん……こうやって……。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口から離す瞬間にそう囁き、再び咥える。その繰り返しに、思わず頭がぼんやりしてくる。</t>
+  </si>
+  <si>
+    <r>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>……すごい……。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>素直な言葉に、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の頬が赤く染まる。だが、手と口の動きは止めない。むしろ励まされたように、さらに熱心になる。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>んっ……ふぅ……。</t>
+  </si>
+  <si>
+    <t>時折漏れる吐息が、さらに興奮を高める。</t>
+  </si>
+  <si>
+    <r>
+      <t>俺は思わず○○の髪に手を伸ばす。柔らかな髪を優しく撫でると、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はさらに嬉しそうに目を細める。</t>
+    </r>
+  </si>
+  <si>
+    <t>ん……お兄ちゃん……こっちの方が……いい？</t>
+  </si>
+  <si>
+    <r>
+      <t>少し深く含みながら尋ねる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。その言葉に、限界が近づいていることを感じる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、もうすぐ……。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>もうそろそろ限界であることを伝えるように言うが、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は離れない。むしろ、さらに一生懸命になる。</t>
+    </r>
+  </si>
+  <si>
+    <t>いいよ……お兄ちゃん……。</t>
+  </si>
+  <si>
+    <t>一度口から離して言うと、再び深く咥える。その姿に堪えきれなくなる。</t>
+  </si>
+  <si>
+    <t>ごめん……もう……。</t>
+  </si>
+  <si>
+    <t>んっ……！(射精)</t>
+    <rPh sb="6" eb="8">
+      <t>シャセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1697,7 +2540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1763,6 +2606,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3210,8 +4062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8639E0C7-E08E-4FF9-BBE9-B50262A5270C}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3864,7 +4716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0107DD1-9466-46C4-8989-10753DF104E6}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
@@ -3879,7 +4731,7 @@
     <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="15.375" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="19.75" customWidth="1"/>
   </cols>
@@ -4771,10 +5623,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893FB589-1C47-4545-97E6-590A3DEF0C71}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4821,6 +5673,493 @@
       </c>
       <c r="M1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B51" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B52" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="B53" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B54" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B55" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="B56" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B57" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="B58" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B59" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B60" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="B61" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B62" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B63" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B64" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="B65" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B68" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B69" s="22" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/NovelData/NovelData.xlsx
+++ b/Assets/Resources/NovelData/NovelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50247246160c431b/ドキュメント/Unity/project_7/Assets/Resources/NovelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1715" documentId="13_ncr:1_{6B7D28D4-C9B5-40C7-9EA6-648BDE79E72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{864E089D-9508-4148-8779-9EEBA51693D7}"/>
+  <xr:revisionPtr revIDLastSave="1727" documentId="13_ncr:1_{6B7D28D4-C9B5-40C7-9EA6-648BDE79E72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2C7440A-C441-4C60-9735-B82DAE978BA0}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="1260" windowWidth="29955" windowHeight="18660" activeTab="7" xr2:uid="{AB1E060B-81D0-40E7-B3A8-D5CA55679207}"/>
+    <workbookView xWindow="3000" yWindow="360" windowWidth="29955" windowHeight="17295" activeTab="8" xr2:uid="{AB1E060B-81D0-40E7-B3A8-D5CA55679207}"/>
   </bookViews>
   <sheets>
     <sheet name="Eve1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="856">
   <si>
     <t>sectionID</t>
     <phoneticPr fontId="1"/>
@@ -6228,31 +6228,6 @@
   </si>
   <si>
     <t>この日の思い出が、二人の関係をまた一歩深めたのだった。</t>
-  </si>
-  <si>
-    <r>
-      <t>夜22時頃、アパートの部屋。テレビから流れるバラエティ番組の笑い声が、小さな部屋の中に響いている。ソファに座る俺の横で、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="游明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>はるか</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="游明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>はうつむき加減に何かを考えているようだ。</t>
-    </r>
   </si>
   <si>
     <r>
@@ -9170,6 +9145,61 @@
   </si>
   <si>
     <t>deleteModel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景/部屋消灯</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.永遠の誓い/永遠の誓い1_1</t>
+    <rPh sb="3" eb="5">
+      <t>エイエン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エイエン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>夜22時頃、アパートの部屋。テレビから流れるバラエティ番組の笑い声が、小さな部屋の中に響いている。ソファに座る俺の横で、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はうつむき加減に何かを考えているようだ。</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9691,7 +9721,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9743,7 +9773,7 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -9758,7 +9788,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="F2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -9889,7 +9919,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -9998,10 +10028,10 @@
       </c>
       <c r="B30" s="1"/>
       <c r="F30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H30" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I30">
         <v>13</v>
@@ -10106,7 +10136,7 @@
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -10117,7 +10147,7 @@
         <v>142</v>
       </c>
       <c r="F40" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -10324,14 +10354,14 @@
   <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J74" sqref="J74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="49.625" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
     <col min="8" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
@@ -10341,47 +10371,47 @@
     <col min="14" max="14" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
-        <v>761</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="L1" s="20" t="s">
+        <v>760</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10389,13 +10419,16 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -10403,7 +10436,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -10411,7 +10444,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -10419,7 +10452,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -10427,7 +10460,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -10435,7 +10468,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C8">
         <v>194</v>
@@ -10446,7 +10479,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -10454,7 +10487,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -10462,7 +10495,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -10470,7 +10503,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C12">
         <v>195</v>
@@ -10481,7 +10514,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -10489,7 +10522,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
+      </c>
+      <c r="F14" t="s">
+        <v>853</v>
+      </c>
+      <c r="H14" t="s">
+        <v>777</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="s">
+        <v>802</v>
+      </c>
+      <c r="N14" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
@@ -10497,7 +10548,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C15">
         <v>196</v>
@@ -10508,7 +10559,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -10516,7 +10567,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C17">
         <v>197</v>
@@ -10527,7 +10578,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -10535,7 +10586,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -10543,7 +10594,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C20">
         <v>198</v>
@@ -10554,7 +10605,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -10562,7 +10613,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
@@ -10570,7 +10621,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C23">
         <v>199</v>
@@ -10581,7 +10632,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
@@ -10589,7 +10640,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C25">
         <v>200</v>
@@ -10600,7 +10651,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -10608,7 +10659,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -10616,7 +10667,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -10624,7 +10675,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C29">
         <v>201</v>
@@ -10635,7 +10686,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
@@ -10643,7 +10694,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C31">
         <v>202</v>
@@ -10654,7 +10705,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -10662,7 +10713,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C33">
         <v>203</v>
@@ -10681,7 +10732,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="86.25" x14ac:dyDescent="0.4">
@@ -10689,7 +10740,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C36">
         <v>204</v>
@@ -10700,7 +10751,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -10708,7 +10759,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C38">
         <v>205</v>
@@ -10727,7 +10778,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C40">
         <v>206</v>
@@ -10738,7 +10789,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -10746,7 +10797,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
@@ -10754,7 +10805,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C43">
         <v>207</v>
@@ -10765,7 +10816,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -10773,7 +10824,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -10781,7 +10832,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
@@ -10789,7 +10840,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C47">
         <v>208</v>
@@ -10800,7 +10851,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
@@ -10808,7 +10859,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -10816,7 +10867,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="69" x14ac:dyDescent="0.4">
@@ -10824,7 +10875,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
@@ -10832,7 +10883,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C52">
         <v>209</v>
@@ -10843,7 +10894,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
@@ -10851,7 +10902,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C54">
         <v>210</v>
@@ -10862,7 +10913,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
@@ -10870,7 +10921,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C56">
         <v>211</v>
@@ -10881,7 +10932,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -10889,7 +10940,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
@@ -10897,7 +10948,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
@@ -10905,7 +10956,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C60">
         <v>212</v>
@@ -10916,7 +10967,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -10924,7 +10975,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -10932,7 +10983,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C63">
         <v>213</v>
@@ -10943,7 +10994,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
@@ -10951,7 +11002,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C65">
         <v>214</v>
@@ -10962,7 +11013,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
@@ -10970,7 +11021,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C67">
         <v>215</v>
@@ -10989,7 +11040,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
@@ -10997,7 +11048,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C70">
         <v>216</v>
@@ -11008,22 +11059,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H71" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I71">
         <v>17</v>
       </c>
       <c r="J71" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M71" t="s">
+        <v>802</v>
+      </c>
+      <c r="N71" t="s">
         <v>803</v>
-      </c>
-      <c r="N71" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
@@ -11031,7 +11082,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C72">
         <v>217</v>
@@ -11042,7 +11093,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -11050,7 +11101,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -11058,7 +11109,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -11066,7 +11117,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.4">
@@ -11074,7 +11125,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C77">
         <v>218</v>
@@ -11085,7 +11136,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.4">
@@ -11093,7 +11144,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C79">
         <v>219</v>
@@ -11104,7 +11155,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C80">
         <v>220</v>
@@ -11115,7 +11166,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
@@ -11123,7 +11174,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
@@ -11131,7 +11182,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C83">
         <v>221</v>
@@ -11142,7 +11193,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
@@ -11150,7 +11201,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C85">
         <v>222</v>
@@ -11161,7 +11212,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -11169,7 +11220,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
@@ -11177,7 +11228,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C88">
         <v>223</v>
@@ -11188,7 +11239,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
@@ -11196,7 +11247,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
@@ -11204,7 +11255,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
@@ -11212,7 +11263,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
@@ -11220,7 +11271,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C93">
         <v>224</v>
@@ -11231,7 +11282,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
@@ -11239,7 +11290,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C95">
         <v>225</v>
@@ -11250,7 +11301,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
@@ -11258,7 +11309,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
@@ -11266,7 +11317,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C98">
         <v>226</v>
@@ -11277,7 +11328,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
@@ -11285,7 +11336,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -11293,7 +11344,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C101">
         <v>227</v>
@@ -11304,7 +11355,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
@@ -11312,7 +11363,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C103">
         <v>228</v>
@@ -11323,7 +11374,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -11331,7 +11382,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
@@ -11339,7 +11390,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
@@ -11504,7 +11555,7 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -11519,7 +11570,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="F2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -11557,7 +11608,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -11830,7 +11881,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="F37" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -12169,7 +12220,7 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -12184,7 +12235,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="F2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -12219,7 +12270,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -12413,7 +12464,7 @@
         <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -12430,7 +12481,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -12460,7 +12511,7 @@
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>203</v>
@@ -12474,7 +12525,7 @@
         <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>203</v>
@@ -12499,7 +12550,7 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>203</v>
@@ -12524,7 +12575,7 @@
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>203</v>
@@ -13030,7 +13081,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>4</v>
@@ -13044,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -13071,10 +13122,10 @@
         <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I5">
         <v>13</v>
@@ -13108,7 +13159,7 @@
         <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -13119,7 +13170,7 @@
         <v>219</v>
       </c>
       <c r="K8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -13130,7 +13181,7 @@
         <v>220</v>
       </c>
       <c r="K9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -13144,7 +13195,7 @@
         <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
@@ -13163,7 +13214,7 @@
         <v>223</v>
       </c>
       <c r="K12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -13174,7 +13225,7 @@
         <v>224</v>
       </c>
       <c r="K13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
@@ -13196,10 +13247,10 @@
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H15" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -13210,7 +13261,7 @@
         <v>227</v>
       </c>
       <c r="F16" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -13267,7 +13318,7 @@
         <v>233</v>
       </c>
       <c r="F22" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -13289,7 +13340,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>203</v>
@@ -13303,7 +13354,7 @@
         <v>236</v>
       </c>
       <c r="F25" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>203</v>
@@ -13320,7 +13371,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>203</v>
@@ -13334,7 +13385,7 @@
         <v>238</v>
       </c>
       <c r="F27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>203</v>
@@ -13351,7 +13402,7 @@
         <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>203</v>
@@ -13376,7 +13427,7 @@
         <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>203</v>
@@ -13390,7 +13441,7 @@
         <v>242</v>
       </c>
       <c r="F31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>203</v>
@@ -13407,7 +13458,7 @@
         <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>203</v>
@@ -13467,7 +13518,7 @@
         <v>249</v>
       </c>
       <c r="F38" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -13489,7 +13540,7 @@
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>203</v>
@@ -13511,7 +13562,7 @@
         <v>253</v>
       </c>
       <c r="F42" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>203</v>
@@ -13555,7 +13606,7 @@
         <v>57</v>
       </c>
       <c r="F46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -13566,7 +13617,7 @@
         <v>258</v>
       </c>
       <c r="F47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>203</v>
@@ -13588,7 +13639,7 @@
         <v>260</v>
       </c>
       <c r="F49" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>203</v>
@@ -13632,7 +13683,7 @@
         <v>264</v>
       </c>
       <c r="F53" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G53" s="18"/>
     </row>
@@ -13663,7 +13714,7 @@
         <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G56" s="18" t="s">
         <v>203</v>
@@ -13704,7 +13755,7 @@
         <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>203</v>
@@ -13723,7 +13774,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
@@ -13737,7 +13788,7 @@
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>203</v>
@@ -13767,7 +13818,7 @@
         <v>276</v>
       </c>
       <c r="F66" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>203</v>
@@ -13784,7 +13835,7 @@
         <v>63</v>
       </c>
       <c r="F67" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G67" s="18" t="s">
         <v>203</v>
@@ -13817,7 +13868,7 @@
         <v>64</v>
       </c>
       <c r="F70" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -13836,7 +13887,7 @@
         <v>282</v>
       </c>
       <c r="F72" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G72" s="18" t="s">
         <v>203</v>
@@ -13853,7 +13904,7 @@
         <v>65</v>
       </c>
       <c r="F73" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G73" s="18" t="s">
         <v>203</v>
@@ -13910,7 +13961,7 @@
         <v>289</v>
       </c>
       <c r="F79" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>203</v>
@@ -13935,7 +13986,7 @@
         <v>291</v>
       </c>
       <c r="F81" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -14003,7 +14054,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>4</v>
@@ -14020,7 +14071,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -14055,7 +14106,7 @@
         <v>295</v>
       </c>
       <c r="F6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -14066,7 +14117,7 @@
         <v>296</v>
       </c>
       <c r="H7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I7">
         <v>13</v>
@@ -14092,7 +14143,7 @@
         <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -14122,7 +14173,7 @@
         <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -14152,7 +14203,7 @@
         <v>303</v>
       </c>
       <c r="H14" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I14">
         <v>13</v>
@@ -14178,7 +14229,7 @@
         <v>70</v>
       </c>
       <c r="K15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -14200,7 +14251,7 @@
         <v>71</v>
       </c>
       <c r="K17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -14230,7 +14281,7 @@
         <v>72</v>
       </c>
       <c r="K20" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -14252,7 +14303,7 @@
         <v>73</v>
       </c>
       <c r="K22" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -14287,7 +14338,7 @@
         <v>315</v>
       </c>
       <c r="K26" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -14301,10 +14352,10 @@
         <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -14318,7 +14369,7 @@
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -14329,7 +14380,7 @@
         <v>318</v>
       </c>
       <c r="F29" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>203</v>
@@ -14346,7 +14397,7 @@
         <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>203</v>
@@ -14371,7 +14422,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>203</v>
@@ -14404,7 +14455,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>203</v>
@@ -14429,7 +14480,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>203</v>
@@ -14454,7 +14505,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>203</v>
@@ -14487,7 +14538,7 @@
         <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>203</v>
@@ -14512,7 +14563,7 @@
         <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>203</v>
@@ -14537,7 +14588,7 @@
         <v>82</v>
       </c>
       <c r="F46" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>203</v>
@@ -14562,7 +14613,7 @@
         <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>203</v>
@@ -14576,7 +14627,7 @@
         <v>338</v>
       </c>
       <c r="F49" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -14598,7 +14649,7 @@
         <v>84</v>
       </c>
       <c r="F51" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>203</v>
@@ -14612,7 +14663,7 @@
         <v>341</v>
       </c>
       <c r="F52" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -14626,7 +14677,7 @@
         <v>85</v>
       </c>
       <c r="F53" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>203</v>
@@ -14659,7 +14710,7 @@
         <v>86</v>
       </c>
       <c r="F56" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G56" s="18" t="s">
         <v>203</v>
@@ -14684,7 +14735,7 @@
         <v>87</v>
       </c>
       <c r="F58" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>203</v>
@@ -14706,7 +14757,7 @@
         <v>349</v>
       </c>
       <c r="F60" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>203</v>
@@ -14723,7 +14774,7 @@
         <v>88</v>
       </c>
       <c r="F61" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>203</v>
@@ -14748,7 +14799,7 @@
         <v>89</v>
       </c>
       <c r="F63" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>203</v>
@@ -14762,7 +14813,7 @@
         <v>353</v>
       </c>
       <c r="F64" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>203</v>
@@ -14776,7 +14827,7 @@
         <v>354</v>
       </c>
       <c r="F65" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -14798,7 +14849,7 @@
         <v>356</v>
       </c>
       <c r="F67" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -14815,7 +14866,7 @@
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -14858,7 +14909,7 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -14907,7 +14958,7 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -14922,7 +14973,7 @@
       </c>
       <c r="B2" s="19"/>
       <c r="F2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -14944,7 +14995,7 @@
         <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>203</v>
@@ -15123,13 +15174,13 @@
         <v>199</v>
       </c>
       <c r="H23" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I23">
         <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M23" t="s">
         <v>123</v>
@@ -15181,7 +15232,7 @@
         <v>386</v>
       </c>
       <c r="M28" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -15686,7 +15737,7 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -15700,7 +15751,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -15773,7 +15824,7 @@
         <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="69" x14ac:dyDescent="0.4">
@@ -15838,7 +15889,7 @@
         <v>448</v>
       </c>
       <c r="F17" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -15887,7 +15938,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -15968,13 +16019,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -16023,7 +16074,7 @@
         <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>203</v>
@@ -16045,7 +16096,7 @@
         <v>468</v>
       </c>
       <c r="F38" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G38" s="18" t="s">
         <v>203</v>
@@ -16062,7 +16113,7 @@
         <v>128</v>
       </c>
       <c r="F39" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>203</v>
@@ -16087,7 +16138,7 @@
         <v>129</v>
       </c>
       <c r="F41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>203</v>
@@ -16120,7 +16171,7 @@
         <v>130</v>
       </c>
       <c r="F44" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>203</v>
@@ -16134,7 +16185,7 @@
         <v>475</v>
       </c>
       <c r="F45" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -16156,7 +16207,7 @@
         <v>131</v>
       </c>
       <c r="F47" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
@@ -16178,7 +16229,7 @@
         <v>479</v>
       </c>
       <c r="F49" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -16208,7 +16259,7 @@
         <v>482</v>
       </c>
       <c r="F52" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -16230,7 +16281,7 @@
         <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
@@ -16381,8 +16432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F66158-5644-476B-BF91-6A15C0C45445}">
   <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
@@ -16431,7 +16482,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>4</v>
@@ -16445,7 +16496,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -16491,7 +16542,7 @@
         <v>495</v>
       </c>
       <c r="H7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I7">
         <v>13</v>
@@ -16511,7 +16562,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K8" t="s">
         <v>211</v>
@@ -16536,7 +16587,7 @@
         <v>136</v>
       </c>
       <c r="K10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
@@ -16563,7 +16614,7 @@
         <v>500</v>
       </c>
       <c r="K13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -16585,7 +16636,7 @@
         <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -16618,7 +16669,7 @@
         <v>139</v>
       </c>
       <c r="K18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="51.75" x14ac:dyDescent="0.4">
@@ -16637,7 +16688,7 @@
         <v>507</v>
       </c>
       <c r="K20" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -16656,7 +16707,7 @@
         <v>509</v>
       </c>
       <c r="K22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -16670,7 +16721,7 @@
         <v>140</v>
       </c>
       <c r="K23" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -16700,7 +16751,7 @@
         <v>141</v>
       </c>
       <c r="K26" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -16738,7 +16789,7 @@
         <v>142</v>
       </c>
       <c r="K30" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -16749,10 +16800,10 @@
         <v>518</v>
       </c>
       <c r="F31" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H31" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="51.75" x14ac:dyDescent="0.4">
@@ -16763,13 +16814,13 @@
         <v>519</v>
       </c>
       <c r="H32" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I32">
         <v>15.7</v>
       </c>
       <c r="J32" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -16937,7 +16988,7 @@
         <v>536</v>
       </c>
       <c r="M50" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -17153,7 +17204,7 @@
       </c>
       <c r="B72" s="11"/>
       <c r="K72" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -17175,7 +17226,7 @@
         <v>159</v>
       </c>
       <c r="K74" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
@@ -17197,7 +17248,7 @@
         <v>160</v>
       </c>
       <c r="K76" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="51.75" x14ac:dyDescent="0.4">
@@ -17216,7 +17267,7 @@
         <v>563</v>
       </c>
       <c r="F78" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
@@ -17440,9 +17491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5F22B8-18F0-470F-BDEA-B9B4F74E586F}">
   <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17490,7 +17541,7 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -17509,7 +17560,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>578</v>
+        <v>855</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -17517,7 +17568,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -17525,7 +17576,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
@@ -17533,7 +17584,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C6">
         <v>165</v>
@@ -17544,7 +17595,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
@@ -17552,7 +17603,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -17560,7 +17611,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -17568,7 +17619,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C10">
         <v>166</v>
@@ -17579,7 +17630,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -17587,7 +17638,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -17595,7 +17646,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C13">
         <v>167</v>
@@ -17606,7 +17657,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -17614,7 +17665,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -17622,7 +17673,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -17630,7 +17681,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C17">
         <v>168</v>
@@ -17641,7 +17692,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -17649,7 +17700,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
@@ -17657,7 +17708,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
@@ -17665,7 +17716,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -17673,7 +17724,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C22">
         <v>169</v>
@@ -17684,7 +17735,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -17700,7 +17751,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -17708,7 +17759,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C26">
         <v>170</v>
@@ -17719,7 +17770,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -17727,7 +17778,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -17735,7 +17786,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -17743,7 +17794,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C30">
         <v>171</v>
@@ -17754,7 +17805,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -17762,7 +17813,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -17778,7 +17829,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C34">
         <v>172</v>
@@ -17789,7 +17840,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -17797,7 +17848,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C36">
         <v>173</v>
@@ -17808,7 +17859,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
@@ -17827,7 +17878,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
@@ -17835,7 +17886,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C40">
         <v>175</v>
@@ -17846,7 +17897,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -17854,7 +17905,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
@@ -17862,7 +17913,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C43">
         <v>176</v>
@@ -17873,7 +17924,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -17881,7 +17932,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
@@ -17889,7 +17940,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C46">
         <v>177</v>
@@ -17900,7 +17951,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -17916,7 +17967,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C49">
         <v>178</v>
@@ -17927,7 +17978,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -17935,7 +17986,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
@@ -17943,7 +17994,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C52">
         <v>179</v>
@@ -17954,7 +18005,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
@@ -17962,7 +18013,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C54">
         <v>180</v>
@@ -17973,7 +18024,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -17981,7 +18032,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
@@ -17989,7 +18040,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C57">
         <v>181</v>
@@ -18000,7 +18051,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
@@ -18008,7 +18059,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C59">
         <v>182</v>
@@ -18027,7 +18078,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -18035,7 +18086,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
@@ -18054,7 +18105,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
@@ -18062,7 +18113,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C65">
         <v>184</v>
@@ -18073,7 +18124,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
@@ -18081,7 +18132,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C67">
         <v>185</v>
@@ -18092,7 +18143,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
@@ -18111,7 +18162,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C70">
         <v>187</v>
@@ -18122,7 +18173,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -18130,7 +18181,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
@@ -18138,7 +18189,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C73">
         <v>188</v>
@@ -18149,7 +18200,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
@@ -18157,7 +18208,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C75">
         <v>189</v>
@@ -18168,7 +18219,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -18176,7 +18227,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
@@ -18184,7 +18235,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C78">
         <v>190</v>
@@ -18195,7 +18246,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
@@ -18203,7 +18254,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -18211,7 +18262,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -18219,7 +18270,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
@@ -18227,7 +18278,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C83">
         <v>191</v>
@@ -18246,7 +18297,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C85">
         <v>192</v>
@@ -18257,7 +18308,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -18265,7 +18316,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
@@ -18273,7 +18324,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C88">
         <v>193</v>
@@ -18284,7 +18335,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
@@ -18292,7 +18343,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">

--- a/Assets/Resources/NovelData/NovelData.xlsx
+++ b/Assets/Resources/NovelData/NovelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50247246160c431b/ドキュメント/Unity/project_7/Assets/Resources/NovelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1727" documentId="13_ncr:1_{6B7D28D4-C9B5-40C7-9EA6-648BDE79E72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2C7440A-C441-4C60-9735-B82DAE978BA0}"/>
+  <xr:revisionPtr revIDLastSave="2058" documentId="13_ncr:1_{6B7D28D4-C9B5-40C7-9EA6-648BDE79E72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B7634C2-DFB0-4CF8-81B1-1CC49765B873}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="360" windowWidth="29955" windowHeight="17295" activeTab="8" xr2:uid="{AB1E060B-81D0-40E7-B3A8-D5CA55679207}"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="33210" windowHeight="20730" activeTab="8" xr2:uid="{AB1E060B-81D0-40E7-B3A8-D5CA55679207}"/>
   </bookViews>
   <sheets>
     <sheet name="Eve1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="909">
   <si>
     <t>sectionID</t>
     <phoneticPr fontId="1"/>
@@ -3389,31 +3389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>同居生活が始まって数ヶ月、大学にも少しずつ慣れてきた</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="游明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>はるか</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="游明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>は、昔よりも表情が豊かになり、時々大胆な一面を見せることもあった。</t>
-    </r>
-  </si>
-  <si>
     <t>あの、前に...一緒に寝たとき...。</t>
   </si>
   <si>
@@ -6549,21 +6524,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>はるか</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="游明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>は照れくさそうに微笑み、おそるおそる俺に近づくと、膝をついて俺のTシャツを脱がせ始める。指先が俺の肌に触れるたび、小さな震えが走る。</t>
-    </r>
-  </si>
-  <si>
     <t>お兄ちゃん…いつも、わたしにいろんなこと教えてくれて…今日は、わたしがお返ししたい…。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -8683,13 +8643,6 @@
       </rPr>
       <t>はさらに嬉しそうに目を細める。</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（絶頂）</t>
-    <rPh sb="1" eb="3">
-      <t>ゼッチョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9202,12 +9155,427 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>同居生活が始まって数ヶ月、大学にも少しずつ慣れてきた</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は、昔よりも表情が豊かになり、時々大胆な一面を見せることもあった。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソファ/ソファ座り男_1</t>
+    <rPh sb="7" eb="8">
+      <t>スワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソファ/ソファ座り男_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソファ/ソファ座り男_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソファ/ソファ座り男_5</t>
+    <rPh sb="7" eb="8">
+      <t>スワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>騎乗位</t>
+    <rPh sb="0" eb="3">
+      <t>キジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>はるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は照れくさそうに微笑み、おそるおそる俺に近づくと、膝をついて俺のTシャツを脱がせ始める。指先が俺の肌に触れるたび、小さな震えが走る。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Night_Leg_3</t>
+  </si>
+  <si>
+    <t>10.永遠の誓い/永遠の誓い3_1</t>
+    <rPh sb="3" eb="5">
+      <t>エイエン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エイエン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.永遠の誓い/永遠の誓い2_1</t>
+    <rPh sb="3" eb="5">
+      <t>エイエン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エイエン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.永遠の誓い/永遠の誓い2_3</t>
+    <rPh sb="3" eb="5">
+      <t>エイエン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エイエン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.永遠の誓い/永遠の誓い2_2</t>
+  </si>
+  <si>
+    <t>10.永遠の誓い/永遠の誓い2_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.永遠の誓い/永遠の誓い2_2</t>
+    <rPh sb="3" eb="5">
+      <t>エイエン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エイエン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.永遠の誓い/永遠の誓い2_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.永遠の誓い/永遠の誓い4_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exp_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exp_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exp_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exp_12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exp_10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exp_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exp_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exp_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Night_Head_5</t>
+  </si>
+  <si>
+    <t>Night_Leg_2</t>
+  </si>
+  <si>
+    <t>Holi_Leg_5</t>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～ゲームシナリオ全開放完了～</t>
+    <rPh sb="8" eb="11">
+      <t>ゼンカイホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.対面立位/対面立位3_1</t>
+    <rPh sb="2" eb="4">
+      <t>タイメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リツイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.対面立位/対面立位3_2</t>
+    <rPh sb="2" eb="4">
+      <t>タイメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リツイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exp_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だめ…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あ…はぁ…っぁ…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はるかの愛くるしい声と校内でする行為が背徳感を煽り、普段よりも気持ちよく感じて我慢が出来ない。</t>
+    <rPh sb="4" eb="5">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウナイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ハイトクカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>フダン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キモ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガマン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Insert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソファ/ソファ座り女_5</t>
+    <rPh sb="7" eb="8">
+      <t>スワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソファ/ソファ座り女_11</t>
+    <rPh sb="7" eb="8">
+      <t>スワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exp_11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exp_8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.騎乗位/騎乗位2_1</t>
+    <rPh sb="2" eb="5">
+      <t>キジョウイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.騎乗位/騎乗位2_4</t>
+    <rPh sb="2" eb="5">
+      <t>キジョウイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.騎乗位/騎乗位2_5</t>
+    <rPh sb="2" eb="5">
+      <t>キジョウイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.騎乗位/騎乗位2_6</t>
+    <rPh sb="2" eb="5">
+      <t>キジョウイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソファ/ソファ座り夜男_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソファ/ソファ座り夜男_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソファ/ソファ座り夜男_11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソファ/ソファ座り夜男_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソファ/ソファ座り夜男_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n1,n4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exp_9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speed_1_B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speed_2_B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speed_3_B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n3</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9286,8 +9654,25 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9297,6 +9682,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9315,7 +9712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9358,9 +9755,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9378,6 +9772,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9773,7 +10209,7 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -9788,7 +10224,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="F2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -9919,7 +10355,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -9937,7 +10373,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9964,7 +10400,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9999,7 +10435,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10018,7 +10454,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10028,10 +10464,10 @@
       </c>
       <c r="B30" s="1"/>
       <c r="F30" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="H30" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I30">
         <v>13</v>
@@ -10136,7 +10572,7 @@
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -10147,7 +10583,7 @@
         <v>142</v>
       </c>
       <c r="F40" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -10353,15 +10789,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863CD4A7-E427-44CA-ABFD-FE263B9264F3}">
   <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="49.625" customWidth="1"/>
-    <col min="6" max="6" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
     <col min="8" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
@@ -10371,47 +10807,47 @@
     <col min="14" max="14" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10420,7 +10856,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -10428,7 +10864,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -10436,7 +10872,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -10444,7 +10880,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -10452,7 +10888,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -10460,7 +10896,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -10468,7 +10904,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C8">
         <v>194</v>
@@ -10479,7 +10915,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -10487,7 +10923,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -10495,7 +10931,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -10503,7 +10939,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C12">
         <v>195</v>
@@ -10514,7 +10950,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -10522,13 +10958,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F14" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H14" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I14">
         <v>13</v>
@@ -10537,10 +10973,10 @@
         <v>156</v>
       </c>
       <c r="M14" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="N14" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
@@ -10548,10 +10984,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C15">
         <v>196</v>
+      </c>
+      <c r="K15" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -10559,442 +10998,484 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C17">
         <v>197</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="K17" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C20">
         <v>198</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="K20" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+        <v>674</v>
+      </c>
+      <c r="K22" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C23">
         <v>199</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="K23" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C25">
         <v>200</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="K25" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>680</v>
+      </c>
+      <c r="K28" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C29">
         <v>201</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
-      <c r="A30">
+      <c r="F29" t="s">
+        <v>784</v>
+      </c>
+      <c r="H29" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="22" customFormat="1" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="22">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="23" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>683</v>
+      </c>
+      <c r="C31" s="22">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="22" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A32" s="22">
+        <v>31</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
+    <row r="33" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="22">
+        <v>32</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>685</v>
       </c>
-      <c r="C31">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="13" t="s">
+      <c r="C33" s="22">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="22">
+        <v>33</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="22" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="22">
+        <v>34</v>
+      </c>
+      <c r="B35" s="25" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
+    <row r="36" spans="1:6" s="22" customFormat="1" ht="86.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="22">
+        <v>35</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>687</v>
       </c>
-      <c r="C33">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="C36" s="22">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="22" customFormat="1" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="A37" s="22">
+        <v>36</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="86.25" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
+    <row r="38" spans="1:6" s="22" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="22">
+        <v>37</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>689</v>
       </c>
-      <c r="C36">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="C38" s="22">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="22">
+        <v>38</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="22">
+        <v>39</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="C40" s="22">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="22" customFormat="1" ht="69" x14ac:dyDescent="0.4">
+      <c r="A41" s="22">
+        <v>40</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>691</v>
       </c>
-      <c r="C38">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8" t="s">
+    </row>
+    <row r="42" spans="1:6" s="22" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="22">
+        <v>41</v>
+      </c>
+      <c r="B42" s="26" t="s">
         <v>692</v>
       </c>
-      <c r="C40">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="69" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="10" t="s">
+    </row>
+    <row r="43" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="22">
+        <v>42</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="12" t="s">
+      <c r="C43" s="22">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="22" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="22">
+        <v>43</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
+    <row r="45" spans="1:6" s="22" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="22">
+        <v>44</v>
+      </c>
+      <c r="B45" s="25" t="s">
         <v>695</v>
       </c>
-      <c r="C43">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C47">
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+        <v>698</v>
+      </c>
+      <c r="F48" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="69" x14ac:dyDescent="0.4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="69" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+        <v>701</v>
+      </c>
+      <c r="F51" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C52">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C54">
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C56">
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+        <v>708</v>
+      </c>
+      <c r="F58" t="s">
+        <v>862</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C60">
         <v>212</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F60" t="s">
+        <v>865</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C63">
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
@@ -11002,7 +11483,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C65">
         <v>214</v>
@@ -11013,7 +11494,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
@@ -11021,7 +11502,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C67">
         <v>215</v>
@@ -11032,7 +11513,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
+      </c>
+      <c r="F68" t="s">
+        <v>862</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -11040,7 +11527,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
@@ -11048,10 +11535,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C70">
         <v>216</v>
+      </c>
+      <c r="F70" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -11059,22 +11549,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H71" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I71">
         <v>17</v>
       </c>
       <c r="J71" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="M71" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="N71" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
@@ -11082,10 +11572,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C72">
         <v>217</v>
+      </c>
+      <c r="L72" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.4">
@@ -11093,7 +11586,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -11101,7 +11594,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>725</v>
+        <v>723</v>
+      </c>
+      <c r="M74" t="s">
+        <v>796</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -11109,7 +11608,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>726</v>
+        <v>724</v>
+      </c>
+      <c r="L75" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -11117,7 +11619,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
+      </c>
+      <c r="K76" t="s">
+        <v>200</v>
+      </c>
+      <c r="L76" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.4">
@@ -11125,290 +11633,366 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C77">
         <v>218</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="L77" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="K78" t="s">
+        <v>880</v>
+      </c>
+      <c r="L78" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A79">
+      <c r="C79">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="L80" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="C82">
+        <v>221</v>
+      </c>
+      <c r="K82" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="K83" t="s">
+        <v>205</v>
+      </c>
+      <c r="L83" s="20"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A84">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="C79">
+      <c r="B84" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="C84">
         <v>219</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="C80">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="C83">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="L84" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C85">
         <v>222</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="L85" s="21" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+        <v>736</v>
+      </c>
+      <c r="K87" t="s">
+        <v>206</v>
+      </c>
+      <c r="L87" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C88">
         <v>223</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+        <v>738</v>
+      </c>
+      <c r="C89">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="C90">
+        <v>287</v>
+      </c>
+      <c r="K90" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+        <v>740</v>
+      </c>
+      <c r="H92" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C93">
         <v>224</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F93" t="s">
+        <v>866</v>
+      </c>
+      <c r="G93" s="17"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C95">
         <v>225</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="F95" t="s">
+        <v>867</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+        <v>745</v>
+      </c>
+      <c r="F97" t="s">
+        <v>864</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C98">
         <v>226</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+        <v>747</v>
+      </c>
+      <c r="F99" t="s">
+        <v>867</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>748</v>
+      </c>
+      <c r="F100" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C101">
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C103">
         <v>228</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+        <v>753</v>
+      </c>
+      <c r="F105" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>106</v>
+      </c>
       <c r="B107" s="10"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B108" s="11"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B109" s="8"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B110" s="8"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B112" s="8"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.4">
@@ -11555,7 +12139,7 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -11570,7 +12154,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="F2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -11608,7 +12192,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -11881,7 +12465,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="F37" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -12165,7 +12749,7 @@
   <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -12220,7 +12804,7 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -12235,7 +12819,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="F2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -12270,7 +12854,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -12464,7 +13048,7 @@
         <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -12481,7 +13065,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -12511,9 +13095,9 @@
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>767</v>
-      </c>
-      <c r="G32" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -12525,9 +13109,9 @@
         <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>768</v>
-      </c>
-      <c r="G33" s="18" t="s">
+        <v>765</v>
+      </c>
+      <c r="G33" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -12550,9 +13134,9 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>769</v>
-      </c>
-      <c r="G35" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -12575,9 +13159,9 @@
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>770</v>
-      </c>
-      <c r="G37" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -12816,7 +13400,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -12900,7 +13484,7 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="17"/>
+      <c r="B71" s="16"/>
       <c r="C71">
         <v>40</v>
       </c>
@@ -13034,8 +13618,8 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13046,47 +13630,47 @@
     <col min="11" max="12" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>759</v>
-      </c>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -13095,7 +13679,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -13122,10 +13706,10 @@
         <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="H5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I5">
         <v>13</v>
@@ -13159,7 +13743,7 @@
         <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -13170,7 +13754,7 @@
         <v>219</v>
       </c>
       <c r="K8" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -13181,7 +13765,7 @@
         <v>220</v>
       </c>
       <c r="K9" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -13195,7 +13779,7 @@
         <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
@@ -13214,7 +13798,7 @@
         <v>223</v>
       </c>
       <c r="K12" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -13225,7 +13809,7 @@
         <v>224</v>
       </c>
       <c r="K13" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
@@ -13247,10 +13831,10 @@
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="H15" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -13261,7 +13845,7 @@
         <v>227</v>
       </c>
       <c r="F16" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -13318,7 +13902,7 @@
         <v>233</v>
       </c>
       <c r="F22" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -13340,9 +13924,9 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>830</v>
-      </c>
-      <c r="G24" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13354,9 +13938,9 @@
         <v>236</v>
       </c>
       <c r="F25" t="s">
-        <v>831</v>
-      </c>
-      <c r="G25" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13371,9 +13955,9 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>832</v>
-      </c>
-      <c r="G26" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13385,9 +13969,9 @@
         <v>238</v>
       </c>
       <c r="F27" t="s">
-        <v>833</v>
-      </c>
-      <c r="G27" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="G27" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13402,9 +13986,9 @@
         <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>834</v>
-      </c>
-      <c r="G28" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="G28" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13427,9 +14011,9 @@
         <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>833</v>
-      </c>
-      <c r="G30" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13441,9 +14025,9 @@
         <v>242</v>
       </c>
       <c r="F31" t="s">
-        <v>835</v>
-      </c>
-      <c r="G31" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13458,9 +14042,9 @@
         <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>833</v>
-      </c>
-      <c r="G32" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13518,7 +14102,7 @@
         <v>249</v>
       </c>
       <c r="F38" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -13540,9 +14124,9 @@
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>838</v>
-      </c>
-      <c r="G40" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="G40" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13562,9 +14146,9 @@
         <v>253</v>
       </c>
       <c r="F42" t="s">
-        <v>837</v>
-      </c>
-      <c r="G42" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="G42" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13606,7 +14190,7 @@
         <v>57</v>
       </c>
       <c r="F46" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -13617,9 +14201,9 @@
         <v>258</v>
       </c>
       <c r="F47" t="s">
-        <v>837</v>
-      </c>
-      <c r="G47" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13639,9 +14223,9 @@
         <v>260</v>
       </c>
       <c r="F49" t="s">
-        <v>840</v>
-      </c>
-      <c r="G49" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="G49" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13683,9 +14267,9 @@
         <v>264</v>
       </c>
       <c r="F53" t="s">
-        <v>838</v>
-      </c>
-      <c r="G53" s="18"/>
+        <v>835</v>
+      </c>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A54">
@@ -13714,9 +14298,9 @@
         <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>836</v>
-      </c>
-      <c r="G56" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="G56" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13755,9 +14339,9 @@
         <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>839</v>
-      </c>
-      <c r="G60" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="G60" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13774,7 +14358,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
@@ -13788,9 +14372,9 @@
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>836</v>
-      </c>
-      <c r="G63" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="G63" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13818,9 +14402,9 @@
         <v>276</v>
       </c>
       <c r="F66" t="s">
-        <v>839</v>
-      </c>
-      <c r="G66" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="G66" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13835,9 +14419,9 @@
         <v>63</v>
       </c>
       <c r="F67" t="s">
-        <v>836</v>
-      </c>
-      <c r="G67" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="G67" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13868,7 +14452,7 @@
         <v>64</v>
       </c>
       <c r="F70" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -13887,9 +14471,9 @@
         <v>282</v>
       </c>
       <c r="F72" t="s">
-        <v>842</v>
-      </c>
-      <c r="G72" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="G72" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13904,9 +14488,9 @@
         <v>65</v>
       </c>
       <c r="F73" t="s">
-        <v>843</v>
-      </c>
-      <c r="G73" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="G73" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13961,9 +14545,9 @@
         <v>289</v>
       </c>
       <c r="F79" t="s">
-        <v>842</v>
-      </c>
-      <c r="G79" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="G79" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13986,7 +14570,7 @@
         <v>291</v>
       </c>
       <c r="F81" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -14005,7 +14589,7 @@
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -14019,47 +14603,47 @@
     <col min="11" max="12" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -14071,7 +14655,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -14106,7 +14690,7 @@
         <v>295</v>
       </c>
       <c r="F6" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -14117,7 +14701,7 @@
         <v>296</v>
       </c>
       <c r="H7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I7">
         <v>13</v>
@@ -14143,7 +14727,7 @@
         <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -14173,7 +14757,7 @@
         <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -14203,7 +14787,7 @@
         <v>303</v>
       </c>
       <c r="H14" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="I14">
         <v>13</v>
@@ -14229,7 +14813,7 @@
         <v>70</v>
       </c>
       <c r="K15" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -14251,7 +14835,7 @@
         <v>71</v>
       </c>
       <c r="K17" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -14281,7 +14865,7 @@
         <v>72</v>
       </c>
       <c r="K20" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -14303,7 +14887,7 @@
         <v>73</v>
       </c>
       <c r="K22" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -14338,7 +14922,7 @@
         <v>315</v>
       </c>
       <c r="K26" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -14352,10 +14936,10 @@
         <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="H27" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -14369,7 +14953,7 @@
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -14380,9 +14964,9 @@
         <v>318</v>
       </c>
       <c r="F29" t="s">
-        <v>805</v>
-      </c>
-      <c r="G29" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14397,9 +14981,9 @@
         <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>806</v>
-      </c>
-      <c r="G30" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14422,9 +15006,9 @@
         <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>807</v>
-      </c>
-      <c r="G32" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14455,9 +15039,9 @@
         <v>77</v>
       </c>
       <c r="F35" t="s">
-        <v>808</v>
-      </c>
-      <c r="G35" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14480,9 +15064,9 @@
         <v>78</v>
       </c>
       <c r="F37" t="s">
-        <v>809</v>
-      </c>
-      <c r="G37" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14505,9 +15089,9 @@
         <v>79</v>
       </c>
       <c r="F39" t="s">
-        <v>806</v>
-      </c>
-      <c r="G39" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14538,9 +15122,9 @@
         <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>808</v>
-      </c>
-      <c r="G42" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="G42" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14563,9 +15147,9 @@
         <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>807</v>
-      </c>
-      <c r="G44" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="G44" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14588,9 +15172,9 @@
         <v>82</v>
       </c>
       <c r="F46" t="s">
-        <v>808</v>
-      </c>
-      <c r="G46" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="G46" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14613,9 +15197,9 @@
         <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>810</v>
-      </c>
-      <c r="G48" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="G48" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14627,7 +15211,7 @@
         <v>338</v>
       </c>
       <c r="F49" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -14649,9 +15233,9 @@
         <v>84</v>
       </c>
       <c r="F51" t="s">
-        <v>814</v>
-      </c>
-      <c r="G51" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14663,7 +15247,7 @@
         <v>341</v>
       </c>
       <c r="F52" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -14677,9 +15261,9 @@
         <v>85</v>
       </c>
       <c r="F53" t="s">
-        <v>812</v>
-      </c>
-      <c r="G53" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="G53" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14710,9 +15294,9 @@
         <v>86</v>
       </c>
       <c r="F56" t="s">
-        <v>816</v>
-      </c>
-      <c r="G56" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="G56" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14735,9 +15319,9 @@
         <v>87</v>
       </c>
       <c r="F58" t="s">
-        <v>812</v>
-      </c>
-      <c r="G58" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="G58" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14757,9 +15341,9 @@
         <v>349</v>
       </c>
       <c r="F60" t="s">
-        <v>815</v>
-      </c>
-      <c r="G60" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="G60" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14774,9 +15358,9 @@
         <v>88</v>
       </c>
       <c r="F61" t="s">
-        <v>811</v>
-      </c>
-      <c r="G61" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="G61" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14799,9 +15383,9 @@
         <v>89</v>
       </c>
       <c r="F63" t="s">
-        <v>812</v>
-      </c>
-      <c r="G63" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="G63" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14813,9 +15397,9 @@
         <v>353</v>
       </c>
       <c r="F64" t="s">
-        <v>811</v>
-      </c>
-      <c r="G64" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="G64" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -14827,7 +15411,7 @@
         <v>354</v>
       </c>
       <c r="F65" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -14849,7 +15433,7 @@
         <v>356</v>
       </c>
       <c r="F67" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -14866,7 +15450,7 @@
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -14906,64 +15490,65 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04869195-E5CF-4ECF-B23B-155E881137F9}">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="51.625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="11" max="12" width="17.375" customWidth="1"/>
     <col min="13" max="13" width="14.625" customWidth="1"/>
     <col min="14" max="14" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
-        <v>760</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="L1" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -14971,16 +15556,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="18"/>
       <c r="F2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>361</v>
       </c>
     </row>
@@ -14995,9 +15580,9 @@
         <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>797</v>
-      </c>
-      <c r="G4" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -15041,7 +15626,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>367</v>
+        <v>853</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -15049,7 +15634,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C10">
         <v>94</v>
@@ -15060,7 +15645,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -15068,7 +15653,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -15076,7 +15661,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
@@ -15084,7 +15669,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C14">
         <v>95</v>
@@ -15095,7 +15680,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -15103,7 +15688,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
@@ -15111,7 +15696,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C17">
         <v>96</v>
@@ -15122,7 +15707,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -15130,7 +15715,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
@@ -15138,7 +15723,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C20">
         <v>97</v>
@@ -15149,7 +15734,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -15157,7 +15742,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
@@ -15165,7 +15750,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C23">
         <v>98</v>
@@ -15174,13 +15759,13 @@
         <v>199</v>
       </c>
       <c r="H23" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I23">
         <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="M23" t="s">
         <v>123</v>
@@ -15194,7 +15779,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
@@ -15202,7 +15787,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
@@ -15210,10 +15795,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C26">
         <v>99</v>
+      </c>
+      <c r="L26" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -15221,7 +15809,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -15229,10 +15817,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M28" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -15243,10 +15831,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C29">
         <v>100</v>
+      </c>
+      <c r="L29" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
@@ -15254,7 +15845,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -15262,7 +15853,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="M31" t="s">
+        <v>893</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
@@ -15270,186 +15867,213 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C32">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="L32" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <v>390</v>
+      </c>
+      <c r="M33" t="s">
+        <v>893</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C35">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="L35" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C37">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C41">
         <v>104</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="L41" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C43">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="L43" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C45">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C49">
         <v>107</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="K49" t="s">
+        <v>888</v>
+      </c>
+      <c r="L49" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C51">
         <v>108</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="L51" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -15457,223 +16081,279 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C53">
         <v>109</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="L53" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C55">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+        <v>412</v>
+      </c>
+      <c r="K56" t="s">
+        <v>200</v>
+      </c>
+      <c r="L56" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C57">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C60">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>417</v>
+      </c>
+      <c r="K61" t="s">
+        <v>205</v>
+      </c>
+      <c r="L61" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C63">
         <v>113</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="L63" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+        <v>421</v>
+      </c>
+      <c r="K65" t="s">
+        <v>206</v>
+      </c>
+      <c r="L65" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C66">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C69">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B71" s="11"/>
+      <c r="C71">
+        <v>294</v>
+      </c>
+      <c r="K71" t="s">
+        <v>847</v>
+      </c>
+      <c r="L71" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>429</v>
+      <c r="B72" s="11" t="s">
+        <v>427</v>
       </c>
       <c r="C72">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+        <v>278</v>
+      </c>
+      <c r="H72" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+        <v>428</v>
+      </c>
+      <c r="C73">
+        <v>116</v>
+      </c>
+      <c r="F73" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C74">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B75" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C75">
+        <v>117</v>
+      </c>
+      <c r="F75" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>433</v>
+      <c r="B76" s="13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -15687,7 +16367,7 @@
   <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
@@ -15737,7 +16417,7 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -15751,7 +16431,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -15759,7 +16439,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -15767,7 +16447,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -15775,7 +16455,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
@@ -15783,7 +16463,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C6">
         <v>118</v>
@@ -15794,7 +16474,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -15802,7 +16482,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -15810,7 +16490,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -15818,13 +16498,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C10">
         <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="69" x14ac:dyDescent="0.4">
@@ -15832,7 +16512,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -15840,7 +16520,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -15848,7 +16528,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C13">
         <v>120</v>
@@ -15859,7 +16539,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -15867,7 +16547,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -15875,7 +16555,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C16">
         <v>121</v>
@@ -15886,10 +16566,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F17" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -15897,7 +16577,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -15905,7 +16585,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -15913,7 +16593,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C20">
         <v>122</v>
@@ -15924,7 +16604,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="51.75" x14ac:dyDescent="0.4">
@@ -15932,13 +16612,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D22">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -15946,7 +16626,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C23">
         <v>123</v>
@@ -15957,7 +16637,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -15965,7 +16645,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -15973,7 +16653,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C26">
         <v>124</v>
@@ -15984,7 +16664,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="51.75" x14ac:dyDescent="0.4">
@@ -15992,7 +16672,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -16000,7 +16680,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -16011,7 +16691,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="51.75" x14ac:dyDescent="0.4">
@@ -16019,13 +16699,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -16033,7 +16713,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C32">
         <v>126</v>
@@ -16044,7 +16724,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -16052,7 +16732,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -16060,7 +16740,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -16068,15 +16748,15 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C36">
         <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>818</v>
-      </c>
-      <c r="G36" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="G36" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -16085,7 +16765,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -16093,12 +16773,12 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F38" t="s">
-        <v>819</v>
-      </c>
-      <c r="G38" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="G38" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -16107,15 +16787,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C39">
         <v>128</v>
       </c>
       <c r="F39" t="s">
-        <v>820</v>
-      </c>
-      <c r="G39" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -16124,7 +16804,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -16132,15 +16812,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C41">
         <v>129</v>
       </c>
       <c r="F41" t="s">
-        <v>821</v>
-      </c>
-      <c r="G41" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="G41" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -16149,7 +16829,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -16157,7 +16837,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -16165,15 +16845,15 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C44">
         <v>130</v>
       </c>
       <c r="F44" t="s">
-        <v>822</v>
-      </c>
-      <c r="G44" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="G44" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -16182,10 +16862,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F45" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -16193,7 +16873,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -16201,13 +16881,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C47">
         <v>131</v>
       </c>
       <c r="F47" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
@@ -16215,7 +16895,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D48">
         <v>17</v>
@@ -16226,10 +16906,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F49" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -16237,7 +16917,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C50">
         <v>132</v>
@@ -16248,7 +16928,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -16256,10 +16936,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F52" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -16267,7 +16947,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="51.75" x14ac:dyDescent="0.4">
@@ -16275,13 +16955,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D54">
         <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
@@ -16289,7 +16969,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C55">
         <v>133</v>
@@ -16300,7 +16980,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
@@ -16308,7 +16988,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="51.75" x14ac:dyDescent="0.4">
@@ -16316,7 +16996,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -16324,7 +17004,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C59">
         <v>134</v>
@@ -16335,7 +17015,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -16430,64 +17110,64 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F66158-5644-476B-BF91-6A15C0C45445}">
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="5" max="5" width="1.875" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="2.625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="11" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -16496,7 +17176,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -16504,7 +17184,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -16512,7 +17192,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -16520,7 +17200,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C5">
         <v>135</v>
@@ -16531,7 +17211,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -16539,10 +17219,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I7">
         <v>13</v>
@@ -16562,7 +17242,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K8" t="s">
         <v>211</v>
@@ -16573,7 +17253,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -16581,13 +17261,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C10">
         <v>136</v>
       </c>
       <c r="K10" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
@@ -16595,7 +17275,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -16603,7 +17283,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -16611,10 +17291,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K13" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -16622,7 +17302,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
@@ -16630,13 +17310,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C15">
         <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -16644,7 +17324,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -16652,7 +17332,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C17">
         <v>138</v>
@@ -16663,13 +17343,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C18">
         <v>139</v>
       </c>
       <c r="K18" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="51.75" x14ac:dyDescent="0.4">
@@ -16677,7 +17357,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -16685,10 +17365,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K20" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -16696,7 +17376,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -16704,10 +17384,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K22" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -16715,13 +17395,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C23">
         <v>140</v>
       </c>
       <c r="K23" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -16729,7 +17409,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="51.75" x14ac:dyDescent="0.4">
@@ -16737,7 +17417,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -16745,13 +17425,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C26">
         <v>141</v>
       </c>
       <c r="K26" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -16759,7 +17439,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -16767,7 +17447,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -16775,7 +17455,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -16783,13 +17463,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C30">
         <v>142</v>
       </c>
       <c r="K30" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
@@ -16797,13 +17477,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="F31" t="s">
-        <v>787</v>
-      </c>
-      <c r="H31" t="s">
-        <v>778</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="51.75" x14ac:dyDescent="0.4">
@@ -16811,162 +17485,168 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="F32" t="s">
+        <v>784</v>
+      </c>
+      <c r="H32" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="28">
+        <v>32</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>519</v>
       </c>
-      <c r="H32" t="s">
-        <v>795</v>
-      </c>
-      <c r="I32">
-        <v>15.7</v>
-      </c>
-      <c r="J32" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="28">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="28" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A34" s="28">
+        <v>33</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="C33">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11" t="s">
+    </row>
+    <row r="35" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="28">
+        <v>34</v>
+      </c>
+      <c r="B35" s="30" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="28">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="28">
+        <v>35</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>522</v>
       </c>
-      <c r="C35">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
+    </row>
+    <row r="37" spans="1:10" s="28" customFormat="1" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="A37" s="28">
+        <v>36</v>
+      </c>
+      <c r="B37" s="31" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="14" t="s">
+    <row r="38" spans="1:10" s="28" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="28">
+        <v>37</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="28">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="28">
+        <v>38</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="28" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="28">
+        <v>39</v>
+      </c>
+      <c r="B40" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="C38">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="11" t="s">
+    </row>
+    <row r="41" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="28">
+        <v>40</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="28">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="28">
+        <v>41</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="C41">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="11" t="s">
+    </row>
+    <row r="43" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="28">
+        <v>42</v>
+      </c>
+      <c r="B43" s="30" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="28">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="28" customFormat="1" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="A44" s="28">
+        <v>43</v>
+      </c>
+      <c r="B44" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="C43">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="11" t="s">
+    </row>
+    <row r="45" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="28">
+        <v>44</v>
+      </c>
+      <c r="B45" s="30" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8" t="s">
+    <row r="46" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="28">
+        <v>45</v>
+      </c>
+      <c r="B46" s="30" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8" t="s">
+      <c r="C46" s="28">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="28">
+        <v>46</v>
+      </c>
+      <c r="B47" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="C46">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
+      </c>
+      <c r="H48" t="s">
+        <v>792</v>
+      </c>
+      <c r="I48">
+        <v>15.7</v>
+      </c>
+      <c r="J48" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
@@ -16974,10 +17654,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C49">
         <v>149</v>
+      </c>
+      <c r="L49" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -16985,10 +17668,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M50" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -16999,10 +17682,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C51">
         <v>150</v>
+      </c>
+      <c r="L51" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
@@ -17010,7 +17696,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
@@ -17018,10 +17704,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C53">
         <v>151</v>
+      </c>
+      <c r="L53" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -17029,7 +17718,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
+      </c>
+      <c r="L54" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
@@ -17037,7 +17729,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C55">
         <v>152</v>
@@ -17048,7 +17740,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K56" t="s">
         <v>200</v>
@@ -17059,10 +17751,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C57">
         <v>153</v>
+      </c>
+      <c r="L57" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -17070,7 +17765,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
@@ -17078,7 +17773,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
@@ -17086,13 +17781,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C60">
         <v>154</v>
       </c>
       <c r="K60" t="s">
         <v>205</v>
+      </c>
+      <c r="L60" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -17100,386 +17798,453 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B62" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="C62">
+        <v>280</v>
+      </c>
+      <c r="L62" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="C63">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="B63" s="11" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="K64" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+        <v>885</v>
+      </c>
+      <c r="C64">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="C65">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="B65" s="12" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B66" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C66">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="C67">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B67" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="K67" t="s">
+        <v>206</v>
+      </c>
+      <c r="L67" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="B68" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C68">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C70">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+      <c r="L70" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B71" s="12" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="K72" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="B72" s="11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B73" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C73">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="C74">
-        <v>159</v>
-      </c>
-      <c r="K74" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B74" s="11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B75" s="11"/>
+      <c r="C75">
+        <v>294</v>
+      </c>
+      <c r="K75" t="s">
+        <v>847</v>
+      </c>
+      <c r="L75" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>561</v>
+      <c r="B76" s="11" t="s">
+        <v>557</v>
       </c>
       <c r="C76">
-        <v>160</v>
-      </c>
-      <c r="K76" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="51.75" x14ac:dyDescent="0.4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B77" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C77">
+        <v>159</v>
+      </c>
+      <c r="K77" t="s">
+        <v>848</v>
+      </c>
+      <c r="L77" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F78" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C79">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="34.5" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+      <c r="K79" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+        <v>561</v>
+      </c>
+      <c r="F80" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="C81">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B82" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C82">
+        <v>161</v>
+      </c>
+      <c r="F82" t="s">
+        <v>882</v>
+      </c>
+      <c r="G82" s="17"/>
+    </row>
+    <row r="83" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B83" s="11" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C84">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
+        <v>883</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B86" s="8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>568</v>
+      </c>
+      <c r="C87">
+        <v>163</v>
+      </c>
+      <c r="F87" t="s">
+        <v>882</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="C89">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B89" s="11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="B90" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B91" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B92" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C92">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="10"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B94" s="8"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B95" s="11"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B93" s="11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>95</v>
+      </c>
       <c r="B96" s="10"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B97" s="13"/>
+      <c r="B97" s="8"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B98" s="8"/>
+      <c r="B98" s="11"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B99" s="1"/>
+      <c r="B99" s="10"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B100" s="8"/>
+      <c r="B100" s="13"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B101" s="10"/>
+      <c r="B101" s="8"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B102" s="10"/>
+      <c r="B102" s="1"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B103" s="11"/>
+      <c r="B103" s="8"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B104" s="8"/>
+      <c r="B104" s="10"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B105" s="8"/>
+      <c r="B105" s="10"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B106" s="10"/>
+      <c r="B106" s="11"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B107" s="11"/>
+      <c r="B107" s="8"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B108" s="8"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B109" s="11"/>
+      <c r="B109" s="10"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B110" s="8"/>
+      <c r="B110" s="11"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B111" s="8"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B112" s="10"/>
+      <c r="B112" s="11"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B113" s="11"/>
+      <c r="B113" s="8"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B114" s="8"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B115" s="11"/>
+      <c r="B115" s="10"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B116" s="8"/>
+      <c r="B116" s="11"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B117" s="11"/>
+      <c r="B117" s="8"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B118" s="10"/>
+      <c r="B118" s="11"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B119" s="10"/>
+      <c r="B119" s="8"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B120" s="7"/>
+      <c r="B120" s="11"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B121" s="10"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B122" s="10"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B123" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -17491,62 +18256,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5F22B8-18F0-470F-BDEA-B9B4F74E586F}">
   <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="56.125" customWidth="1"/>
-    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="11" max="12" width="21.75" customWidth="1"/>
     <col min="13" max="13" width="18.25" customWidth="1"/>
     <col min="14" max="14" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
-        <v>760</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="L1" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -17554,13 +18320,16 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -17568,7 +18337,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
+      </c>
+      <c r="F4" t="s">
+        <v>857</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -17576,7 +18351,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
@@ -17584,10 +18359,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C6">
         <v>165</v>
+      </c>
+      <c r="F6" t="s">
+        <v>855</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -17595,7 +18376,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
@@ -17603,7 +18384,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -17611,7 +18392,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -17619,10 +18400,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C10">
         <v>166</v>
+      </c>
+      <c r="F10" t="s">
+        <v>856</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -17630,7 +18417,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
+      </c>
+      <c r="F11" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -17638,7 +18428,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -17646,7 +18436,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C13">
         <v>167</v>
@@ -17657,7 +18447,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -17665,7 +18455,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -17673,618 +18463,752 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C17">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+        <v>592</v>
+      </c>
+      <c r="F19" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+        <v>593</v>
+      </c>
+      <c r="F20" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>594</v>
+      </c>
+      <c r="F21" t="s">
+        <v>895</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C22">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C26">
         <v>170</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="F26" t="s">
+        <v>896</v>
+      </c>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C30">
         <v>171</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F30" t="s">
+        <v>897</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C34">
         <v>172</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
-      <c r="A35">
+      <c r="F34" t="s">
+        <v>896</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="28" customFormat="1" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="A35" s="28">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="29" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="28">
+        <v>35</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="C36" s="28">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="28" customFormat="1" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="A37" s="28">
+        <v>36</v>
+      </c>
+      <c r="B37" s="32" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
+    <row r="38" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="28">
+        <v>37</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="C38" s="28">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="28">
+        <v>38</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>608</v>
       </c>
-      <c r="C36">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="13" t="s">
+    </row>
+    <row r="40" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="28">
+        <v>39</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="C38">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="C40" s="28">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="28" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="28">
+        <v>40</v>
+      </c>
+      <c r="B41" s="33" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8" t="s">
+    <row r="42" spans="1:14" s="28" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="28">
+        <v>41</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>611</v>
       </c>
-      <c r="C40">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="10" t="s">
+    </row>
+    <row r="43" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="28">
+        <v>42</v>
+      </c>
+      <c r="B43" s="30" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="11" t="s">
+      <c r="C43" s="28">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="28">
+        <v>43</v>
+      </c>
+      <c r="B44" s="30" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
+    <row r="45" spans="1:14" s="28" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="28">
+        <v>44</v>
+      </c>
+      <c r="B45" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="C43">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8" t="s">
+    </row>
+    <row r="46" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="28">
+        <v>45</v>
+      </c>
+      <c r="B46" s="30" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C46">
+      <c r="C46" s="28">
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+        <v>616</v>
+      </c>
+      <c r="F47" t="s">
+        <v>784</v>
+      </c>
+      <c r="H47" t="s">
+        <v>858</v>
+      </c>
+      <c r="I47">
+        <v>15.8</v>
+      </c>
+      <c r="J47" t="s">
+        <v>793</v>
+      </c>
+      <c r="M47" t="s">
+        <v>903</v>
+      </c>
+      <c r="N47" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+        <v>382</v>
+      </c>
+      <c r="L48" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C49">
         <v>178</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="L49" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>618</v>
+      </c>
+      <c r="K50" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C52">
         <v>179</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="L52" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C54">
         <v>180</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="K54" t="s">
+        <v>905</v>
+      </c>
+      <c r="L54" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+        <v>624</v>
+      </c>
+      <c r="L56" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C57">
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+        <v>626</v>
+      </c>
+      <c r="K58" t="s">
+        <v>906</v>
+      </c>
+      <c r="L58" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C59">
         <v>182</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="L59" t="s">
+        <v>869</v>
+      </c>
+      <c r="M59" t="s">
+        <v>908</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>475</v>
+      </c>
+      <c r="K60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>628</v>
+      </c>
+      <c r="L61" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C63">
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+        <v>630</v>
+      </c>
+      <c r="K64" t="s">
+        <v>206</v>
+      </c>
+      <c r="M64" t="s">
+        <v>908</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C65">
         <v>184</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="L65" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C67">
         <v>185</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="K67" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C69">
         <v>186</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="L69" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C70">
         <v>187</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="K70" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+        <v>637</v>
+      </c>
+      <c r="K72" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C73">
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+        <v>639</v>
+      </c>
+      <c r="H74" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C75">
         <v>189</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F75" t="s">
+        <v>898</v>
+      </c>
+      <c r="G75" s="17"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+        <v>642</v>
+      </c>
+      <c r="F77" t="s">
+        <v>899</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C78">
         <v>190</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="F78" t="s">
+        <v>900</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C83">
         <v>191</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F83" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -18292,76 +19216,88 @@
         <v>334</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C85">
         <v>192</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="F85" t="s">
+        <v>902</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C88">
         <v>193</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="F88" t="s">
+        <v>899</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="34.5" x14ac:dyDescent="0.4">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B91" s="8"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B92" s="8"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B93" s="8"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B94" s="8"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B95" s="12"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B96" s="13"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.4">

--- a/Assets/Resources/NovelData/NovelData.xlsx
+++ b/Assets/Resources/NovelData/NovelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50247246160c431b/ドキュメント/Unity/project_7/Assets/Resources/NovelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2058" documentId="13_ncr:1_{6B7D28D4-C9B5-40C7-9EA6-648BDE79E72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B7634C2-DFB0-4CF8-81B1-1CC49765B873}"/>
+  <xr:revisionPtr revIDLastSave="2079" documentId="13_ncr:1_{6B7D28D4-C9B5-40C7-9EA6-648BDE79E72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E210645D-23A1-4776-B7E3-8069CEC06C83}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="33210" windowHeight="20730" activeTab="8" xr2:uid="{AB1E060B-81D0-40E7-B3A8-D5CA55679207}"/>
+    <workbookView xWindow="3285" yWindow="690" windowWidth="33210" windowHeight="14730" activeTab="9" xr2:uid="{AB1E060B-81D0-40E7-B3A8-D5CA55679207}"/>
   </bookViews>
   <sheets>
     <sheet name="Eve1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="920">
   <si>
     <t>sectionID</t>
     <phoneticPr fontId="1"/>
@@ -9357,16 +9357,6 @@
   </si>
   <si>
     <t>Idle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～ゲームシナリオ全開放完了～</t>
-    <rPh sb="8" eb="11">
-      <t>ゼンカイホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カンリョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9568,6 +9558,141 @@
   </si>
   <si>
     <t>n3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.対面立位/横顔2パジャマ</t>
+    <rPh sb="2" eb="4">
+      <t>タイメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リツイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨコカオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.対面立位/横顔5裸</t>
+    <rPh sb="7" eb="9">
+      <t>ヨコカオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.対面立位/横顔3裸</t>
+    <rPh sb="2" eb="4">
+      <t>タイメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リツイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨコカオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.対面立位/横顔8裸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.対面立位/横顔9裸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.対面立位/横顔5裸</t>
+    <rPh sb="2" eb="6">
+      <t>タイメンリツイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨコカオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.対面立位/横顔3裸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.対面立位/横顔2裸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.対面立位/横顔6パジャマ夜</t>
+    <rPh sb="2" eb="4">
+      <t>タイメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リツイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.対面立位/横顔7パジャマ夜</t>
+    <rPh sb="2" eb="4">
+      <t>タイメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リツイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨコカオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.対面立位/横顔8パジャマ夜</t>
+    <rPh sb="2" eb="4">
+      <t>タイメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リツイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨコカオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.対面立位/横顔1パジャマ夜</t>
+    <rPh sb="2" eb="4">
+      <t>タイメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リツイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨコカオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨル</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10789,9 +10914,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863CD4A7-E427-44CA-ABFD-FE263B9264F3}">
   <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11151,6 +11276,9 @@
       <c r="B30" s="23" t="s">
         <v>682</v>
       </c>
+      <c r="F30" s="22" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="31" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="22">
@@ -11181,6 +11309,9 @@
       <c r="C33" s="22">
         <v>203</v>
       </c>
+      <c r="F33" s="22" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="34" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="22">
@@ -11227,6 +11358,9 @@
       <c r="C38" s="22">
         <v>205</v>
       </c>
+      <c r="F38" s="22" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="39" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="22">
@@ -11262,6 +11396,9 @@
       <c r="B42" s="26" t="s">
         <v>692</v>
       </c>
+      <c r="F42" s="22" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="43" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="22">
@@ -11976,12 +12113,7 @@
       <c r="B107" s="10"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>881</v>
-      </c>
+      <c r="B108" s="11"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B109" s="8"/>
@@ -13618,7 +13750,7 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -14589,7 +14721,7 @@
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -15493,8 +15625,8 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15856,7 +15988,7 @@
         <v>388</v>
       </c>
       <c r="M31" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -15884,7 +16016,7 @@
         <v>390</v>
       </c>
       <c r="M33" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -15909,7 +16041,7 @@
         <v>102</v>
       </c>
       <c r="L35" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="34.5" x14ac:dyDescent="0.4">
@@ -16045,7 +16177,7 @@
         <v>107</v>
       </c>
       <c r="K49" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L49" t="s">
         <v>869</v>
@@ -16092,7 +16224,7 @@
         <v>109</v>
       </c>
       <c r="L53" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
@@ -16125,7 +16257,7 @@
         <v>200</v>
       </c>
       <c r="L56" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
@@ -16177,7 +16309,7 @@
         <v>205</v>
       </c>
       <c r="L61" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="34.5" x14ac:dyDescent="0.4">
@@ -16310,7 +16442,7 @@
         <v>116</v>
       </c>
       <c r="F73" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
@@ -16332,7 +16464,7 @@
         <v>117</v>
       </c>
       <c r="F75" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="51.75" x14ac:dyDescent="0.4">
@@ -16367,7 +16499,7 @@
   <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
@@ -17113,8 +17245,8 @@
   <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17504,6 +17636,9 @@
       <c r="C33" s="28">
         <v>143</v>
       </c>
+      <c r="F33" s="28" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="34" spans="1:10" s="28" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A34" s="28">
@@ -17512,6 +17647,9 @@
       <c r="B34" s="29" t="s">
         <v>520</v>
       </c>
+      <c r="F34" s="28" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="35" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="28">
@@ -17550,6 +17688,9 @@
       <c r="C38" s="28">
         <v>145</v>
       </c>
+      <c r="F38" s="28" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row r="39" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="28">
@@ -17596,6 +17737,9 @@
       <c r="C43" s="28">
         <v>147</v>
       </c>
+      <c r="F43" s="28" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="44" spans="1:10" s="28" customFormat="1" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A44" s="28">
@@ -17660,7 +17804,7 @@
         <v>149</v>
       </c>
       <c r="L49" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -17790,7 +17934,7 @@
         <v>205</v>
       </c>
       <c r="L60" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
@@ -17806,7 +17950,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C62">
         <v>280</v>
@@ -17820,7 +17964,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -17828,7 +17972,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C64">
         <v>277</v>
@@ -18030,7 +18174,7 @@
         <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G82" s="17"/>
     </row>
@@ -18053,7 +18197,7 @@
         <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>203</v>
@@ -18086,7 +18230,7 @@
         <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G87" s="17" t="s">
         <v>203</v>
@@ -18256,9 +18400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5F22B8-18F0-470F-BDEA-B9B4F74E586F}">
   <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18504,7 +18648,7 @@
         <v>593</v>
       </c>
       <c r="F20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
@@ -18515,7 +18659,7 @@
         <v>594</v>
       </c>
       <c r="F21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>203</v>
@@ -18567,7 +18711,7 @@
         <v>170</v>
       </c>
       <c r="F26" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G26" s="17"/>
     </row>
@@ -18606,7 +18750,7 @@
         <v>171</v>
       </c>
       <c r="F30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>203</v>
@@ -18647,7 +18791,7 @@
         <v>172</v>
       </c>
       <c r="F34" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>203</v>
@@ -18660,6 +18804,9 @@
       <c r="B35" s="29" t="s">
         <v>605</v>
       </c>
+      <c r="F35" s="28" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="36" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="28">
@@ -18690,6 +18837,9 @@
       <c r="C38" s="28">
         <v>174</v>
       </c>
+      <c r="F38" s="28" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="39" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="28">
@@ -18709,6 +18859,9 @@
       <c r="C40" s="28">
         <v>175</v>
       </c>
+      <c r="F40" s="28" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="41" spans="1:14" s="28" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A41" s="28">
@@ -18736,6 +18889,9 @@
       <c r="C43" s="28">
         <v>176</v>
       </c>
+      <c r="F43" s="28" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="44" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="28">
@@ -18763,6 +18919,9 @@
       <c r="C46" s="28">
         <v>177</v>
       </c>
+      <c r="F46" s="28" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A47">
@@ -18784,7 +18943,7 @@
         <v>793</v>
       </c>
       <c r="M47" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="N47" t="s">
         <v>800</v>
@@ -18798,7 +18957,7 @@
         <v>382</v>
       </c>
       <c r="L48" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
@@ -18867,7 +19026,7 @@
         <v>180</v>
       </c>
       <c r="K54" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L54" t="s">
         <v>869</v>
@@ -18889,7 +19048,7 @@
         <v>624</v>
       </c>
       <c r="L56" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
@@ -18911,7 +19070,7 @@
         <v>626</v>
       </c>
       <c r="K58" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L58" t="s">
         <v>870</v>
@@ -18931,7 +19090,7 @@
         <v>869</v>
       </c>
       <c r="M59" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -18989,7 +19148,7 @@
         <v>206</v>
       </c>
       <c r="M64" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -19028,7 +19187,7 @@
         <v>185</v>
       </c>
       <c r="K67" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
@@ -19119,7 +19278,7 @@
         <v>189</v>
       </c>
       <c r="F75" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G75" s="17"/>
     </row>
@@ -19139,7 +19298,7 @@
         <v>642</v>
       </c>
       <c r="F77" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G77" s="17" t="s">
         <v>203</v>
@@ -19156,7 +19315,7 @@
         <v>190</v>
       </c>
       <c r="F78" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G78" s="17" t="s">
         <v>203</v>
@@ -19205,7 +19364,7 @@
         <v>191</v>
       </c>
       <c r="F83" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
@@ -19227,7 +19386,7 @@
         <v>192</v>
       </c>
       <c r="F85" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G85" s="17" t="s">
         <v>203</v>
@@ -19260,7 +19419,7 @@
         <v>193</v>
       </c>
       <c r="F88" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G88" s="17" t="s">
         <v>203</v>
